--- a/CourseCardSystem/SkillConfig.xlsx
+++ b/CourseCardSystem/SkillConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/CourseCardSystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F33843-12BF-DD4E-8C37-88FC82037328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BFFE60-769A-E646-B2BC-76C21F657E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16880" xr2:uid="{150D73F0-B0CA-A041-9E0D-63E3588F4F4E}"/>
+    <workbookView xWindow="1600" yWindow="1220" windowWidth="27640" windowHeight="16880" xr2:uid="{150D73F0-B0CA-A041-9E0D-63E3588F4F4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -52,45 +52,6 @@
     <t>skill_value</t>
   </si>
   <si>
-    <t>指针速度-30%</t>
-  </si>
-  <si>
-    <t>指针速度-10%</t>
-  </si>
-  <si>
-    <t>指针速度-20%</t>
-  </si>
-  <si>
-    <t>弹球力量+3%</t>
-  </si>
-  <si>
-    <t>弹球力量+6%</t>
-  </si>
-  <si>
-    <t>弹球力量+9%</t>
-  </si>
-  <si>
-    <t>弹球力量+12%</t>
-  </si>
-  <si>
-    <t>弹球力量+15%</t>
-  </si>
-  <si>
-    <t>弹球力量+18%</t>
-  </si>
-  <si>
-    <t>弹球力量+21%</t>
-  </si>
-  <si>
-    <t>弹球力量+24%</t>
-  </si>
-  <si>
-    <t>弹球力量+27%</t>
-  </si>
-  <si>
-    <t>弹球力量+30%</t>
-  </si>
-  <si>
     <t>技能类型枚举</t>
   </si>
   <si>
@@ -110,6 +71,21 @@
   </si>
   <si>
     <t>reduce_needle_speed</t>
+  </si>
+  <si>
+    <t>jump ball power +3%</t>
+  </si>
+  <si>
+    <t>jump ball power +6%</t>
+  </si>
+  <si>
+    <t>need_speed -10%</t>
+  </si>
+  <si>
+    <t>need_speed -20%</t>
+  </si>
+  <si>
+    <t>need_speed -30%</t>
   </si>
 </sst>
 </file>
@@ -464,7 +440,7 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -544,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
@@ -561,13 +537,13 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>1001</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F3">
         <v>1001</v>
@@ -576,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I3">
         <v>3</v>
@@ -584,7 +560,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -593,7 +569,7 @@
         <v>1002</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F4">
         <v>1002</v>
@@ -602,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I4">
         <v>6</v>
@@ -610,7 +586,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -619,7 +595,7 @@
         <v>1003</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F5">
         <v>1003</v>
@@ -628,7 +604,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I5">
         <v>9</v>
@@ -636,7 +612,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -645,7 +621,7 @@
         <v>1004</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F6">
         <v>1004</v>
@@ -654,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I6">
         <v>12</v>
@@ -674,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I7">
         <v>15</v>
@@ -694,7 +670,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I8">
         <v>18</v>
@@ -705,7 +681,7 @@
         <v>1007</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F9">
         <v>1007</v>
@@ -714,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I9">
         <v>21</v>
@@ -725,7 +701,7 @@
         <v>1008</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F10">
         <v>1008</v>
@@ -734,7 +710,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I10">
         <v>24</v>
@@ -745,7 +721,7 @@
         <v>1009</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F11">
         <v>1009</v>
@@ -754,7 +730,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I11">
         <v>27</v>
@@ -765,7 +741,7 @@
         <v>1010</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F12">
         <v>1010</v>
@@ -774,7 +750,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I12">
         <v>30</v>
@@ -785,7 +761,7 @@
         <v>1011</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F13">
         <v>1011</v>
@@ -794,7 +770,7 @@
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I13">
         <v>10</v>
@@ -805,7 +781,7 @@
         <v>1012</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F14">
         <v>1012</v>
@@ -814,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="I14">
         <v>20</v>
@@ -825,7 +801,7 @@
         <v>1013</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F15">
         <v>1013</v>
@@ -834,7 +810,7 @@
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="I15">
         <v>30</v>
@@ -842,5 +818,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/CourseCardSystem/SkillConfig.xlsx
+++ b/CourseCardSystem/SkillConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/CourseCardSystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BFFE60-769A-E646-B2BC-76C21F657E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A45D24-A7C0-A243-BF32-94110FB9394C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1600" yWindow="1220" windowWidth="27640" windowHeight="16880" xr2:uid="{150D73F0-B0CA-A041-9E0D-63E3588F4F4E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -86,6 +86,30 @@
   </si>
   <si>
     <t>need_speed -30%</t>
+  </si>
+  <si>
+    <t>jump ball power +9%</t>
+  </si>
+  <si>
+    <t>jump ball power +12%</t>
+  </si>
+  <si>
+    <t>jump ball power +15%</t>
+  </si>
+  <si>
+    <t>jump ball power +18%</t>
+  </si>
+  <si>
+    <t>jump ball power +21%</t>
+  </si>
+  <si>
+    <t>jump ball power +24%</t>
+  </si>
+  <si>
+    <t>jump ball power +27%</t>
+  </si>
+  <si>
+    <t>jump ball power +30%</t>
   </si>
 </sst>
 </file>
@@ -440,7 +464,7 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -595,7 +619,7 @@
         <v>1003</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F5">
         <v>1003</v>
@@ -621,7 +645,7 @@
         <v>1004</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F6">
         <v>1004</v>
@@ -641,7 +665,7 @@
         <v>1005</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F7">
         <v>1005</v>
@@ -661,7 +685,7 @@
         <v>1006</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F8">
         <v>1006</v>
@@ -681,7 +705,7 @@
         <v>1007</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F9">
         <v>1007</v>
@@ -701,7 +725,7 @@
         <v>1008</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F10">
         <v>1008</v>
@@ -721,7 +745,7 @@
         <v>1009</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F11">
         <v>1009</v>
@@ -741,7 +765,7 @@
         <v>1010</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F12">
         <v>1010</v>

--- a/CourseCardSystem/SkillConfig.xlsx
+++ b/CourseCardSystem/SkillConfig.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,64 +12,339 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="108">
   <si>
     <t>skill_id</t>
   </si>
   <si>
+    <t>skill_desc</t>
+  </si>
+  <si>
     <t>skill_type</t>
   </si>
   <si>
-    <t>skill_desc</t>
-  </si>
-  <si>
     <t>skill_value</t>
   </si>
   <si>
-    <t>技能类型枚举</t>
+    <t>skill_value_type</t>
+  </si>
+  <si>
+    <t>club_ids</t>
+  </si>
+  <si>
+    <t>ball_types</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>☃</t>
+  </si>
+  <si>
+    <t>技能类型</t>
+  </si>
+  <si>
+    <t>skill_power</t>
   </si>
   <si>
     <t>jump ball power +3%</t>
   </si>
   <si>
-    <t>skill_power</t>
-  </si>
-  <si>
-    <t>类型类型</t>
+    <t>yx</t>
+  </si>
+  <si>
+    <t>类型id</t>
+  </si>
+  <si>
+    <t>说明</t>
   </si>
   <si>
     <t>jump ball power +6%</t>
   </si>
   <si>
-    <t>弹球力量+（百分比）</t>
-  </si>
-  <si>
-    <t>减少指针速度（百分比）</t>
+    <t>改变力量大小</t>
+  </si>
+  <si>
+    <t>jump ball power +9%</t>
+  </si>
+  <si>
+    <t>改变指针速度</t>
+  </si>
+  <si>
+    <t>jump ball power +12%</t>
+  </si>
+  <si>
+    <t>改变球的弹性属性</t>
+  </si>
+  <si>
+    <t>jump ball power +15%</t>
+  </si>
+  <si>
+    <t>改变球/球杆风力属性</t>
+  </si>
+  <si>
+    <t>jump ball power +18%</t>
+  </si>
+  <si>
+    <t>改变球杆上下旋范围</t>
+  </si>
+  <si>
+    <t>jump ball power +21%</t>
+  </si>
+  <si>
+    <t>改变球杆侧旋范围</t>
+  </si>
+  <si>
+    <t>jump ball power +24%</t>
+  </si>
+  <si>
+    <t>jump ball power +27%</t>
+  </si>
+  <si>
+    <t>球类型</t>
+  </si>
+  <si>
+    <t>jump ball power +30%</t>
   </si>
   <si>
     <t>need_speed -10%</t>
   </si>
   <si>
+    <t>有任意技能的球</t>
+  </si>
+  <si>
+    <t>reduce_needle_speed</t>
+  </si>
+  <si>
     <t>need_speed -20%</t>
   </si>
   <si>
-    <t>reduce_needle_speed</t>
+    <t>全部球</t>
   </si>
   <si>
     <t>need_speed -30%</t>
+  </si>
+  <si>
+    <t>有力量加成</t>
+  </si>
+  <si>
+    <t>skill_ball_power</t>
+  </si>
+  <si>
+    <t>ball_power +8%</t>
+  </si>
+  <si>
+    <t>gry</t>
+  </si>
+  <si>
+    <t>有弹性增益</t>
+  </si>
+  <si>
+    <t>有弹性减益</t>
+  </si>
+  <si>
+    <t>顺风</t>
+  </si>
+  <si>
+    <t>逆风</t>
+  </si>
+  <si>
+    <t>字段说明</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>技能id</t>
+  </si>
+  <si>
+    <t>skill_side_spin_up</t>
+  </si>
+  <si>
+    <t>helm_side_spin +20</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>技能描述</t>
+  </si>
+  <si>
+    <t>技能类型ID</t>
+  </si>
+  <si>
+    <t>helm_side_spin +10</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>技能数值，可以是负数</t>
+  </si>
+  <si>
+    <t>helm_side_spin +15</t>
+  </si>
+  <si>
+    <t>技能数值类型
+0:百分比，
+1：绝对数值</t>
+  </si>
+  <si>
+    <t>skill_reduce_wind</t>
+  </si>
+  <si>
+    <t>19,20</t>
+  </si>
+  <si>
+    <t>wind -10%</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>作用的球杆id，0表示对所有球杆生效，不配置表示不对球杆生效</t>
+  </si>
+  <si>
+    <t>作用的球类型， 需要同时满足全部条件才生效</t>
+  </si>
+  <si>
+    <t>skill_bounce</t>
+  </si>
+  <si>
+    <t>ball_bounce +30%</t>
+  </si>
+  <si>
+    <t>策划保留字段</t>
+  </si>
+  <si>
+    <t>sniper_side_spin +20</t>
+  </si>
+  <si>
+    <t>sniper_side_spin +10</t>
+  </si>
+  <si>
+    <t>sniper_side_spin +15</t>
+  </si>
+  <si>
+    <t>jump ball power +%4</t>
+  </si>
+  <si>
+    <t>HKY</t>
+  </si>
+  <si>
+    <t>jump ball power +%9</t>
+  </si>
+  <si>
+    <t>ball_bounce +10%</t>
+  </si>
+  <si>
+    <t>skill_earth_power_up</t>
+  </si>
+  <si>
+    <t>Earth_power +%2.5</t>
+  </si>
+  <si>
+    <t>skill_top_spin_up</t>
+  </si>
+  <si>
+    <t>Earth_top_spin +5</t>
+  </si>
+  <si>
+    <t>Earth_top_spin +15</t>
+  </si>
+  <si>
+    <t>Earth_top_spin +20</t>
+  </si>
+  <si>
+    <t>skill_earth_reduce_wind</t>
+  </si>
+  <si>
+    <t>Earth_wind -20%</t>
+  </si>
+  <si>
+    <t>Earth_power +%9</t>
+  </si>
+  <si>
+    <t>Earth_wind -10%</t>
+  </si>
+  <si>
+    <t>jump ball power +5%</t>
+  </si>
+  <si>
+    <t>zzh</t>
+  </si>
+  <si>
+    <t>jump ball power +8%</t>
+  </si>
+  <si>
+    <t>skill_spinner_power_up</t>
+  </si>
+  <si>
+    <t>Spinner_power +8%</t>
+  </si>
+  <si>
+    <t>ball_bounce +15%</t>
+  </si>
+  <si>
+    <t>wind resistance</t>
+  </si>
+  <si>
+    <t>Spinner wind resistance50%</t>
+  </si>
+  <si>
+    <t>ball_bounce +5%</t>
+  </si>
+  <si>
+    <t>Helm_side_spin +20</t>
+  </si>
+  <si>
+    <t>Spinner_side_spin +20</t>
+  </si>
+  <si>
+    <t>jump ball bounce +5%</t>
+  </si>
+  <si>
+    <t>earth_top_spin +10</t>
+  </si>
+  <si>
+    <t>moon_top_spin +10</t>
+  </si>
+  <si>
+    <t>ball_bounce +20%</t>
+  </si>
+  <si>
+    <t>lava_power</t>
+  </si>
+  <si>
+    <t>lava power+20</t>
+  </si>
+  <si>
+    <t>lava power+15</t>
+  </si>
+  <si>
+    <t>Moon wind resistance10%</t>
+  </si>
+  <si>
+    <t>Moon wind resistance20%</t>
+  </si>
+  <si>
+    <t>moon_power</t>
+  </si>
+  <si>
+    <t>Moon power+20</t>
+  </si>
+  <si>
+    <t>ball bounce</t>
+  </si>
+  <si>
+    <t>jump ball bounce +10%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -79,13 +355,66 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6D7A8"/>
+        <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -94,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -105,7 +434,76 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -116,6 +514,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -319,12 +721,19 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="31.86"/>
-    <col customWidth="1" min="5" max="5" width="36.57"/>
+    <col customWidth="1" min="3" max="3" width="24.0"/>
+    <col customWidth="1" min="4" max="4" width="10.0"/>
+    <col customWidth="1" min="6" max="6" width="24.57"/>
+    <col customWidth="1" min="9" max="11" width="24.57"/>
+    <col customWidth="1" min="12" max="12" width="36.57"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -388,33 +797,42 @@
       <c r="T1" s="1">
         <v>20.0</v>
       </c>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="K2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -422,35 +840,41 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
         <v>1001.0</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1001.0</v>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="G3" s="1">
         <v>1.0</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="1">
+      <c r="H3" s="1">
         <v>3.0</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="I3" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -458,37 +882,43 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="1">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1">
         <v>1002.0</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1002.0</v>
       </c>
       <c r="G4" s="1">
         <v>1.0</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="1">
+      <c r="H4" s="1">
         <v>6.0</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="I4" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -496,37 +926,43 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="A5" s="8">
         <v>1.0</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1">
+      <c r="B5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
         <v>1003.0</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1003.0</v>
+      <c r="F5" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="G5" s="1">
         <v>1.0</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="H5" s="1">
         <v>9.0</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
+      <c r="I5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -534,37 +970,44 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="A6" s="8">
         <v>2.0</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="1">
+      <c r="B6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
         <v>1004.0</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1004.0</v>
       </c>
       <c r="G6" s="1">
         <v>1.0</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="H6" s="1">
         <v>12.0</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="I6" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -572,33 +1015,44 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="1">
+      <c r="A7" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
         <v>1005.0</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1005.0</v>
+      <c r="F7" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="G7" s="1">
         <v>1.0</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="H7" s="1">
         <v>15.0</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
+      <c r="I7" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -606,33 +1060,44 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="1">
+      <c r="A8" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
         <v>1006.0</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1006.0</v>
       </c>
       <c r="G8" s="1">
         <v>1.0</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="H8" s="1">
         <v>18.0</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="I8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -640,33 +1105,44 @@
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="1">
+      <c r="A9" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
         <v>1007.0</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1007.0</v>
+      <c r="F9" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="G9" s="1">
         <v>1.0</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="H9" s="1">
         <v>21.0</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
+      <c r="I9" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -674,33 +1150,44 @@
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="1">
+      <c r="A10" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1">
         <v>1008.0</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1008.0</v>
       </c>
       <c r="G10" s="1">
         <v>1.0</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="1">
+      <c r="H10" s="1">
         <v>24.0</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="I10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -708,33 +1195,40 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="1">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1">
         <v>1009.0</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1009.0</v>
+      <c r="F11" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="G11" s="1">
         <v>1.0</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="1">
+      <c r="H11" s="1">
         <v>27.0</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
+      <c r="I11" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -742,33 +1236,42 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="1">
+      <c r="A12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1">
         <v>1010.0</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1010.0</v>
       </c>
       <c r="G12" s="1">
         <v>1.0</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="1">
+      <c r="H12" s="1">
         <v>30.0</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
+      <c r="I12" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -776,33 +1279,44 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="1">
+      <c r="A13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1">
         <v>1011.0</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1011.0</v>
+      <c r="F13" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="G13" s="1">
         <v>2.0</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
+      <c r="H13" s="1">
+        <v>-10.0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -810,33 +1324,44 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="1">
+      <c r="A14" s="8">
+        <v>-1.0</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
         <v>1012.0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1012.0</v>
+      <c r="F14" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="G14" s="1">
         <v>2.0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
+      <c r="H14" s="1">
+        <v>-20.0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -844,33 +1369,44 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="1">
+      <c r="A15" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
         <v>1013.0</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1013.0</v>
+      <c r="F15" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="G15" s="1">
         <v>2.0</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
+      <c r="H15" s="1">
+        <v>-30.0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -878,6 +1414,4963 @@
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11">
+        <v>1014.0</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="H16" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="I16" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="J16" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="K16" s="11">
+        <v>-1.0</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11">
+        <v>1015.0</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="H17" s="11">
+        <v>16.0</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>-1.0</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11">
+        <v>1016.0</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="H18" s="11">
+        <v>24.0</v>
+      </c>
+      <c r="I18" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="J18" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="K18" s="11">
+        <v>-1.0</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11">
+        <v>1017.0</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>32.0</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="K19" s="11">
+        <v>-1.0</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11">
+        <v>1018.0</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="H20" s="11">
+        <v>40.0</v>
+      </c>
+      <c r="I20" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="J20" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="K20" s="11">
+        <v>-1.0</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11">
+        <v>1019.0</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="H21" s="11">
+        <v>48.0</v>
+      </c>
+      <c r="I21" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="K21" s="11">
+        <v>-1.0</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11">
+        <v>1020.0</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="H22" s="11">
+        <v>56.0</v>
+      </c>
+      <c r="I22" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="J22" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="K22" s="11">
+        <v>-1.0</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11">
+        <v>1021.0</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="11">
+        <v>6.0</v>
+      </c>
+      <c r="H23" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="I23" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="J23" s="11">
+        <v>19.0</v>
+      </c>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11">
+        <v>1022.0</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="11">
+        <v>6.0</v>
+      </c>
+      <c r="H24" s="11">
+        <v>40.0</v>
+      </c>
+      <c r="I24" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="J24" s="11">
+        <v>19.0</v>
+      </c>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11">
+        <v>1023.0</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="11">
+        <v>6.0</v>
+      </c>
+      <c r="H25" s="11">
+        <v>50.0</v>
+      </c>
+      <c r="I25" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="J25" s="11">
+        <v>19.0</v>
+      </c>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11">
+        <v>1024.0</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="11">
+        <v>6.0</v>
+      </c>
+      <c r="H26" s="11">
+        <v>65.0</v>
+      </c>
+      <c r="I26" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="J26" s="11">
+        <v>19.0</v>
+      </c>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11">
+        <v>1025.0</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="H27" s="11">
+        <v>-10.0</v>
+      </c>
+      <c r="I27" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11">
+        <v>1026.0</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="H28" s="11">
+        <v>-20.0</v>
+      </c>
+      <c r="I28" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11">
+        <v>1027.0</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="H29" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="I29" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="K29" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11">
+        <v>1028.0</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="11">
+        <v>7.0</v>
+      </c>
+      <c r="H30" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="I30" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="J30" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11">
+        <v>1029.0</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" s="11">
+        <v>7.0</v>
+      </c>
+      <c r="H31" s="11">
+        <v>40.0</v>
+      </c>
+      <c r="I31" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="J31" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" s="10"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11">
+        <v>1030.0</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="11">
+        <v>7.0</v>
+      </c>
+      <c r="H32" s="11">
+        <v>50.0</v>
+      </c>
+      <c r="I32" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="J32" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" s="10"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11">
+        <v>1031.0</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="11">
+        <v>7.0</v>
+      </c>
+      <c r="H33" s="11">
+        <v>65.0</v>
+      </c>
+      <c r="I33" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="J33" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" s="10"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="16">
+        <v>1032.0</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="H34" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="I34" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="L34" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" s="10"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="16">
+        <v>1033.0</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="H35" s="16">
+        <v>13.0</v>
+      </c>
+      <c r="I35" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="L35" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" s="10"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="16">
+        <v>1034.0</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="H36" s="16">
+        <v>22.0</v>
+      </c>
+      <c r="I36" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="L36" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" s="10"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="16">
+        <v>1035.0</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G37" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="H37" s="16">
+        <v>10.0</v>
+      </c>
+      <c r="I37" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="L37" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" s="10"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="16">
+        <v>1036.0</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="H38" s="16">
+        <v>31.0</v>
+      </c>
+      <c r="I38" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="L38" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" s="10"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="16">
+        <v>1037.0</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="H39" s="16">
+        <v>20.0</v>
+      </c>
+      <c r="I39" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="L39" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" s="10"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="16">
+        <v>1038.0</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G40" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="H40" s="16">
+        <v>11.5</v>
+      </c>
+      <c r="I40" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="J40" s="16">
+        <v>31.0</v>
+      </c>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" s="10"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="16">
+        <v>1039.0</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G41" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="H41" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="I41" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="J41" s="16">
+        <v>31.0</v>
+      </c>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="M41" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" s="10"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="16">
+        <v>1040.0</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G42" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="H42" s="16">
+        <v>14.0</v>
+      </c>
+      <c r="I42" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="J42" s="16">
+        <v>31.0</v>
+      </c>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" s="10"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="16">
+        <v>1041.0</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G43" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="H43" s="16">
+        <v>20.0</v>
+      </c>
+      <c r="I43" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="J43" s="16">
+        <v>31.0</v>
+      </c>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="M43" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" s="10"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="16">
+        <v>1042.0</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G44" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="H44" s="16">
+        <v>40.0</v>
+      </c>
+      <c r="I44" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="J44" s="16">
+        <v>31.0</v>
+      </c>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" s="10"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="16">
+        <v>1043.0</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G45" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="H45" s="16">
+        <v>-30.0</v>
+      </c>
+      <c r="I45" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="J45" s="16">
+        <v>31.0</v>
+      </c>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="M45" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" s="10"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="16">
+        <v>1044.0</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G46" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="H46" s="16">
+        <v>9.0</v>
+      </c>
+      <c r="I46" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="J46" s="16">
+        <v>31.0</v>
+      </c>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="M46" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" s="10"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="16">
+        <v>1045.0</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="H47" s="18">
+        <v>-10.0</v>
+      </c>
+      <c r="I47" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="M47" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" s="10"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="16">
+        <v>1046.0</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G48" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="H48" s="16">
+        <v>-10.0</v>
+      </c>
+      <c r="I48" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="J48" s="16">
+        <v>31.0</v>
+      </c>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="M48" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" s="10"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="16">
+        <v>1047.0</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G49" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="H49" s="18">
+        <v>-20.0</v>
+      </c>
+      <c r="I49" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="M49" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" s="10"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="16">
+        <v>1048.0</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G50" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="H50" s="16">
+        <v>55.0</v>
+      </c>
+      <c r="I50" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="J50" s="16">
+        <v>31.0</v>
+      </c>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="M50" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" s="10"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="16">
+        <v>1049.0</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G51" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="H51" s="18">
+        <v>-30.0</v>
+      </c>
+      <c r="I51" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M51" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" s="10"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11">
+        <v>1050.0</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="H52" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="I52" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" s="10"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11">
+        <v>1051.0</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="H53" s="11">
+        <v>13.0</v>
+      </c>
+      <c r="I53" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="M53" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" s="10"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11">
+        <v>1052.0</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="H54" s="11">
+        <v>21.0</v>
+      </c>
+      <c r="I54" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="K54" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" s="10"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11">
+        <v>1053.0</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G55" s="11">
+        <v>11.0</v>
+      </c>
+      <c r="H55" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="I55" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J55" s="11">
+        <v>50.0</v>
+      </c>
+      <c r="L55" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="M55" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" s="10"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11">
+        <v>1054.0</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="H56" s="11">
+        <v>29.0</v>
+      </c>
+      <c r="I56" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="K56" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="M56" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" s="10"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11">
+        <v>1055.0</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="H57" s="11">
+        <v>37.0</v>
+      </c>
+      <c r="I57" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="K57" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="M57" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" s="10"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11">
+        <v>1056.0</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="H58" s="11">
+        <v>45.0</v>
+      </c>
+      <c r="I58" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="K58" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="M58" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" s="10"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11">
+        <v>1057.0</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G59" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="H59" s="11">
+        <v>15.0</v>
+      </c>
+      <c r="I59" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="K59" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="L59" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="M59" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" s="10"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11">
+        <v>1058.0</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="H60" s="11">
+        <v>53.0</v>
+      </c>
+      <c r="I60" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="K60" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="M60" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" s="10"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11">
+        <v>1059.0</v>
+      </c>
+      <c r="F61" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G61" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="H61" s="11">
+        <v>50.0</v>
+      </c>
+      <c r="I61" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="J61" s="11">
+        <v>50.0</v>
+      </c>
+      <c r="L61" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="M61" s="11"/>
+    </row>
+    <row r="62">
+      <c r="C62" s="10"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11">
+        <v>1060.0</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G62" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="H62" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="I62" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="K62" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="L62" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="M62" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" s="10"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11">
+        <v>1061.0</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="H63" s="11">
+        <v>61.0</v>
+      </c>
+      <c r="I63" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="K63" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="M63" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" ht="18.75" customHeight="1">
+      <c r="C64" s="10"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11">
+        <v>1062.0</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G64" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="H64" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="I64" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="J64" s="11">
+        <v>19.0</v>
+      </c>
+      <c r="L64" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="M64" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="E65" s="11">
+        <v>1097.0</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G65" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="H65" s="11">
+        <v>-20.0</v>
+      </c>
+      <c r="I65" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="J65" s="11">
+        <v>50.0</v>
+      </c>
+      <c r="L65" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="M65" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="C99" s="10"/>
+    </row>
+    <row r="100">
+      <c r="C100" s="10"/>
+    </row>
+    <row r="101">
+      <c r="C101" s="10"/>
+    </row>
+    <row r="102">
+      <c r="C102" s="10"/>
+    </row>
+    <row r="103">
+      <c r="C103" s="10"/>
+    </row>
+    <row r="104">
+      <c r="C104" s="10"/>
+    </row>
+    <row r="105">
+      <c r="C105" s="10"/>
+    </row>
+    <row r="106">
+      <c r="C106" s="10"/>
+    </row>
+    <row r="107">
+      <c r="C107" s="10"/>
+    </row>
+    <row r="108">
+      <c r="C108" s="10"/>
+    </row>
+    <row r="109">
+      <c r="C109" s="10"/>
+    </row>
+    <row r="110">
+      <c r="C110" s="10"/>
+    </row>
+    <row r="111">
+      <c r="C111" s="10"/>
+    </row>
+    <row r="112">
+      <c r="C112" s="10"/>
+    </row>
+    <row r="113">
+      <c r="C113" s="10"/>
+    </row>
+    <row r="114">
+      <c r="C114" s="10"/>
+    </row>
+    <row r="115">
+      <c r="C115" s="10"/>
+    </row>
+    <row r="116">
+      <c r="C116" s="10"/>
+    </row>
+    <row r="117">
+      <c r="C117" s="10"/>
+    </row>
+    <row r="118">
+      <c r="C118" s="10"/>
+    </row>
+    <row r="119">
+      <c r="C119" s="10"/>
+    </row>
+    <row r="120">
+      <c r="C120" s="10"/>
+    </row>
+    <row r="121">
+      <c r="C121" s="10"/>
+    </row>
+    <row r="122">
+      <c r="C122" s="10"/>
+    </row>
+    <row r="123">
+      <c r="C123" s="10"/>
+    </row>
+    <row r="124">
+      <c r="C124" s="10"/>
+    </row>
+    <row r="125">
+      <c r="C125" s="10"/>
+    </row>
+    <row r="126">
+      <c r="C126" s="10"/>
+    </row>
+    <row r="127">
+      <c r="C127" s="10"/>
+    </row>
+    <row r="128">
+      <c r="C128" s="10"/>
+    </row>
+    <row r="129">
+      <c r="C129" s="10"/>
+    </row>
+    <row r="130">
+      <c r="C130" s="10"/>
+    </row>
+    <row r="131">
+      <c r="C131" s="10"/>
+    </row>
+    <row r="132">
+      <c r="C132" s="10"/>
+    </row>
+    <row r="133">
+      <c r="C133" s="10"/>
+    </row>
+    <row r="134">
+      <c r="C134" s="10"/>
+    </row>
+    <row r="135">
+      <c r="C135" s="10"/>
+    </row>
+    <row r="136">
+      <c r="C136" s="10"/>
+    </row>
+    <row r="137">
+      <c r="C137" s="10"/>
+    </row>
+    <row r="138">
+      <c r="C138" s="10"/>
+    </row>
+    <row r="139">
+      <c r="C139" s="10"/>
+    </row>
+    <row r="140">
+      <c r="C140" s="10"/>
+    </row>
+    <row r="141">
+      <c r="C141" s="10"/>
+    </row>
+    <row r="142">
+      <c r="C142" s="10"/>
+    </row>
+    <row r="143">
+      <c r="C143" s="10"/>
+    </row>
+    <row r="144">
+      <c r="C144" s="10"/>
+    </row>
+    <row r="145">
+      <c r="C145" s="10"/>
+    </row>
+    <row r="146">
+      <c r="C146" s="10"/>
+    </row>
+    <row r="147">
+      <c r="C147" s="10"/>
+    </row>
+    <row r="148">
+      <c r="C148" s="10"/>
+    </row>
+    <row r="149">
+      <c r="C149" s="10"/>
+    </row>
+    <row r="150">
+      <c r="C150" s="10"/>
+    </row>
+    <row r="151">
+      <c r="C151" s="10"/>
+    </row>
+    <row r="152">
+      <c r="C152" s="10"/>
+    </row>
+    <row r="153">
+      <c r="C153" s="10"/>
+    </row>
+    <row r="154">
+      <c r="C154" s="10"/>
+    </row>
+    <row r="155">
+      <c r="C155" s="10"/>
+    </row>
+    <row r="156">
+      <c r="C156" s="10"/>
+    </row>
+    <row r="157">
+      <c r="C157" s="10"/>
+    </row>
+    <row r="158">
+      <c r="C158" s="10"/>
+    </row>
+    <row r="159">
+      <c r="C159" s="10"/>
+    </row>
+    <row r="160">
+      <c r="C160" s="10"/>
+    </row>
+    <row r="161">
+      <c r="C161" s="10"/>
+    </row>
+    <row r="162">
+      <c r="C162" s="10"/>
+    </row>
+    <row r="163">
+      <c r="C163" s="10"/>
+    </row>
+    <row r="164">
+      <c r="C164" s="10"/>
+    </row>
+    <row r="165">
+      <c r="C165" s="10"/>
+    </row>
+    <row r="166">
+      <c r="C166" s="10"/>
+    </row>
+    <row r="167">
+      <c r="C167" s="10"/>
+    </row>
+    <row r="168">
+      <c r="C168" s="10"/>
+    </row>
+    <row r="169">
+      <c r="C169" s="10"/>
+    </row>
+    <row r="170">
+      <c r="C170" s="10"/>
+    </row>
+    <row r="171">
+      <c r="C171" s="10"/>
+    </row>
+    <row r="172">
+      <c r="C172" s="10"/>
+    </row>
+    <row r="173">
+      <c r="C173" s="10"/>
+    </row>
+    <row r="174">
+      <c r="C174" s="10"/>
+    </row>
+    <row r="175">
+      <c r="C175" s="10"/>
+    </row>
+    <row r="176">
+      <c r="C176" s="10"/>
+    </row>
+    <row r="177">
+      <c r="C177" s="10"/>
+    </row>
+    <row r="178">
+      <c r="C178" s="10"/>
+    </row>
+    <row r="179">
+      <c r="C179" s="10"/>
+    </row>
+    <row r="180">
+      <c r="C180" s="10"/>
+    </row>
+    <row r="181">
+      <c r="C181" s="10"/>
+    </row>
+    <row r="182">
+      <c r="C182" s="10"/>
+    </row>
+    <row r="183">
+      <c r="C183" s="10"/>
+    </row>
+    <row r="184">
+      <c r="C184" s="10"/>
+    </row>
+    <row r="185">
+      <c r="C185" s="10"/>
+    </row>
+    <row r="186">
+      <c r="C186" s="10"/>
+    </row>
+    <row r="187">
+      <c r="C187" s="10"/>
+    </row>
+    <row r="188">
+      <c r="C188" s="10"/>
+    </row>
+    <row r="189">
+      <c r="C189" s="10"/>
+    </row>
+    <row r="190">
+      <c r="C190" s="10"/>
+    </row>
+    <row r="191">
+      <c r="C191" s="10"/>
+    </row>
+    <row r="192">
+      <c r="C192" s="10"/>
+    </row>
+    <row r="193">
+      <c r="C193" s="10"/>
+    </row>
+    <row r="194">
+      <c r="C194" s="10"/>
+    </row>
+    <row r="195">
+      <c r="C195" s="10"/>
+    </row>
+    <row r="196">
+      <c r="C196" s="10"/>
+    </row>
+    <row r="197">
+      <c r="C197" s="10"/>
+    </row>
+    <row r="198">
+      <c r="C198" s="10"/>
+    </row>
+    <row r="199">
+      <c r="C199" s="10"/>
+    </row>
+    <row r="200">
+      <c r="C200" s="10"/>
+    </row>
+    <row r="201">
+      <c r="C201" s="10"/>
+    </row>
+    <row r="202">
+      <c r="C202" s="10"/>
+    </row>
+    <row r="203">
+      <c r="C203" s="10"/>
+    </row>
+    <row r="204">
+      <c r="C204" s="10"/>
+    </row>
+    <row r="205">
+      <c r="C205" s="10"/>
+    </row>
+    <row r="206">
+      <c r="C206" s="10"/>
+    </row>
+    <row r="207">
+      <c r="C207" s="10"/>
+    </row>
+    <row r="208">
+      <c r="C208" s="10"/>
+    </row>
+    <row r="209">
+      <c r="C209" s="10"/>
+    </row>
+    <row r="210">
+      <c r="C210" s="10"/>
+    </row>
+    <row r="211">
+      <c r="C211" s="10"/>
+    </row>
+    <row r="212">
+      <c r="C212" s="10"/>
+    </row>
+    <row r="213">
+      <c r="C213" s="10"/>
+    </row>
+    <row r="214">
+      <c r="C214" s="10"/>
+    </row>
+    <row r="215">
+      <c r="C215" s="10"/>
+    </row>
+    <row r="216">
+      <c r="C216" s="10"/>
+    </row>
+    <row r="217">
+      <c r="C217" s="10"/>
+    </row>
+    <row r="218">
+      <c r="C218" s="10"/>
+    </row>
+    <row r="219">
+      <c r="C219" s="10"/>
+    </row>
+    <row r="220">
+      <c r="C220" s="10"/>
+    </row>
+    <row r="221">
+      <c r="C221" s="10"/>
+    </row>
+    <row r="222">
+      <c r="C222" s="10"/>
+    </row>
+    <row r="223">
+      <c r="C223" s="10"/>
+    </row>
+    <row r="224">
+      <c r="C224" s="10"/>
+    </row>
+    <row r="225">
+      <c r="C225" s="10"/>
+    </row>
+    <row r="226">
+      <c r="C226" s="10"/>
+    </row>
+    <row r="227">
+      <c r="C227" s="10"/>
+    </row>
+    <row r="228">
+      <c r="C228" s="10"/>
+    </row>
+    <row r="229">
+      <c r="C229" s="10"/>
+    </row>
+    <row r="230">
+      <c r="C230" s="10"/>
+    </row>
+    <row r="231">
+      <c r="C231" s="10"/>
+    </row>
+    <row r="232">
+      <c r="C232" s="10"/>
+    </row>
+    <row r="233">
+      <c r="C233" s="10"/>
+    </row>
+    <row r="234">
+      <c r="C234" s="10"/>
+    </row>
+    <row r="235">
+      <c r="C235" s="10"/>
+    </row>
+    <row r="236">
+      <c r="C236" s="10"/>
+    </row>
+    <row r="237">
+      <c r="C237" s="10"/>
+    </row>
+    <row r="238">
+      <c r="C238" s="10"/>
+    </row>
+    <row r="239">
+      <c r="C239" s="10"/>
+    </row>
+    <row r="240">
+      <c r="C240" s="10"/>
+    </row>
+    <row r="241">
+      <c r="C241" s="10"/>
+    </row>
+    <row r="242">
+      <c r="C242" s="10"/>
+    </row>
+    <row r="243">
+      <c r="C243" s="10"/>
+    </row>
+    <row r="244">
+      <c r="C244" s="10"/>
+    </row>
+    <row r="245">
+      <c r="C245" s="10"/>
+    </row>
+    <row r="246">
+      <c r="C246" s="10"/>
+    </row>
+    <row r="247">
+      <c r="C247" s="10"/>
+    </row>
+    <row r="248">
+      <c r="C248" s="10"/>
+    </row>
+    <row r="249">
+      <c r="C249" s="10"/>
+    </row>
+    <row r="250">
+      <c r="C250" s="10"/>
+    </row>
+    <row r="251">
+      <c r="C251" s="10"/>
+    </row>
+    <row r="252">
+      <c r="C252" s="10"/>
+    </row>
+    <row r="253">
+      <c r="C253" s="10"/>
+    </row>
+    <row r="254">
+      <c r="C254" s="10"/>
+    </row>
+    <row r="255">
+      <c r="C255" s="10"/>
+    </row>
+    <row r="256">
+      <c r="C256" s="10"/>
+    </row>
+    <row r="257">
+      <c r="C257" s="10"/>
+    </row>
+    <row r="258">
+      <c r="C258" s="10"/>
+    </row>
+    <row r="259">
+      <c r="C259" s="10"/>
+    </row>
+    <row r="260">
+      <c r="C260" s="10"/>
+    </row>
+    <row r="261">
+      <c r="C261" s="10"/>
+    </row>
+    <row r="262">
+      <c r="C262" s="10"/>
+    </row>
+    <row r="263">
+      <c r="C263" s="10"/>
+    </row>
+    <row r="264">
+      <c r="C264" s="10"/>
+    </row>
+    <row r="265">
+      <c r="C265" s="10"/>
+    </row>
+    <row r="266">
+      <c r="C266" s="10"/>
+    </row>
+    <row r="267">
+      <c r="C267" s="10"/>
+    </row>
+    <row r="268">
+      <c r="C268" s="10"/>
+    </row>
+    <row r="269">
+      <c r="C269" s="10"/>
+    </row>
+    <row r="270">
+      <c r="C270" s="10"/>
+    </row>
+    <row r="271">
+      <c r="C271" s="10"/>
+    </row>
+    <row r="272">
+      <c r="C272" s="10"/>
+    </row>
+    <row r="273">
+      <c r="C273" s="10"/>
+    </row>
+    <row r="274">
+      <c r="C274" s="10"/>
+    </row>
+    <row r="275">
+      <c r="C275" s="10"/>
+    </row>
+    <row r="276">
+      <c r="C276" s="10"/>
+    </row>
+    <row r="277">
+      <c r="C277" s="10"/>
+    </row>
+    <row r="278">
+      <c r="C278" s="10"/>
+    </row>
+    <row r="279">
+      <c r="C279" s="10"/>
+    </row>
+    <row r="280">
+      <c r="C280" s="10"/>
+    </row>
+    <row r="281">
+      <c r="C281" s="10"/>
+    </row>
+    <row r="282">
+      <c r="C282" s="10"/>
+    </row>
+    <row r="283">
+      <c r="C283" s="10"/>
+    </row>
+    <row r="284">
+      <c r="C284" s="10"/>
+    </row>
+    <row r="285">
+      <c r="C285" s="10"/>
+    </row>
+    <row r="286">
+      <c r="C286" s="10"/>
+    </row>
+    <row r="287">
+      <c r="C287" s="10"/>
+    </row>
+    <row r="288">
+      <c r="C288" s="10"/>
+    </row>
+    <row r="289">
+      <c r="C289" s="10"/>
+    </row>
+    <row r="290">
+      <c r="C290" s="10"/>
+    </row>
+    <row r="291">
+      <c r="C291" s="10"/>
+    </row>
+    <row r="292">
+      <c r="C292" s="10"/>
+    </row>
+    <row r="293">
+      <c r="C293" s="10"/>
+    </row>
+    <row r="294">
+      <c r="C294" s="10"/>
+    </row>
+    <row r="295">
+      <c r="C295" s="10"/>
+    </row>
+    <row r="296">
+      <c r="C296" s="10"/>
+    </row>
+    <row r="297">
+      <c r="C297" s="10"/>
+    </row>
+    <row r="298">
+      <c r="C298" s="10"/>
+    </row>
+    <row r="299">
+      <c r="C299" s="10"/>
+    </row>
+    <row r="300">
+      <c r="C300" s="10"/>
+    </row>
+    <row r="301">
+      <c r="C301" s="10"/>
+    </row>
+    <row r="302">
+      <c r="C302" s="10"/>
+    </row>
+    <row r="303">
+      <c r="C303" s="10"/>
+    </row>
+    <row r="304">
+      <c r="C304" s="10"/>
+    </row>
+    <row r="305">
+      <c r="C305" s="10"/>
+    </row>
+    <row r="306">
+      <c r="C306" s="10"/>
+    </row>
+    <row r="307">
+      <c r="C307" s="10"/>
+    </row>
+    <row r="308">
+      <c r="C308" s="10"/>
+    </row>
+    <row r="309">
+      <c r="C309" s="10"/>
+    </row>
+    <row r="310">
+      <c r="C310" s="10"/>
+    </row>
+    <row r="311">
+      <c r="C311" s="10"/>
+    </row>
+    <row r="312">
+      <c r="C312" s="10"/>
+    </row>
+    <row r="313">
+      <c r="C313" s="10"/>
+    </row>
+    <row r="314">
+      <c r="C314" s="10"/>
+    </row>
+    <row r="315">
+      <c r="C315" s="10"/>
+    </row>
+    <row r="316">
+      <c r="C316" s="10"/>
+    </row>
+    <row r="317">
+      <c r="C317" s="10"/>
+    </row>
+    <row r="318">
+      <c r="C318" s="10"/>
+    </row>
+    <row r="319">
+      <c r="C319" s="10"/>
+    </row>
+    <row r="320">
+      <c r="C320" s="10"/>
+    </row>
+    <row r="321">
+      <c r="C321" s="10"/>
+    </row>
+    <row r="322">
+      <c r="C322" s="10"/>
+    </row>
+    <row r="323">
+      <c r="C323" s="10"/>
+    </row>
+    <row r="324">
+      <c r="C324" s="10"/>
+    </row>
+    <row r="325">
+      <c r="C325" s="10"/>
+    </row>
+    <row r="326">
+      <c r="C326" s="10"/>
+    </row>
+    <row r="327">
+      <c r="C327" s="10"/>
+    </row>
+    <row r="328">
+      <c r="C328" s="10"/>
+    </row>
+    <row r="329">
+      <c r="C329" s="10"/>
+    </row>
+    <row r="330">
+      <c r="C330" s="10"/>
+    </row>
+    <row r="331">
+      <c r="C331" s="10"/>
+    </row>
+    <row r="332">
+      <c r="C332" s="10"/>
+    </row>
+    <row r="333">
+      <c r="C333" s="10"/>
+    </row>
+    <row r="334">
+      <c r="C334" s="10"/>
+    </row>
+    <row r="335">
+      <c r="C335" s="10"/>
+    </row>
+    <row r="336">
+      <c r="C336" s="10"/>
+    </row>
+    <row r="337">
+      <c r="C337" s="10"/>
+    </row>
+    <row r="338">
+      <c r="C338" s="10"/>
+    </row>
+    <row r="339">
+      <c r="C339" s="10"/>
+    </row>
+    <row r="340">
+      <c r="C340" s="10"/>
+    </row>
+    <row r="341">
+      <c r="C341" s="10"/>
+    </row>
+    <row r="342">
+      <c r="C342" s="10"/>
+    </row>
+    <row r="343">
+      <c r="C343" s="10"/>
+    </row>
+    <row r="344">
+      <c r="C344" s="10"/>
+    </row>
+    <row r="345">
+      <c r="C345" s="10"/>
+    </row>
+    <row r="346">
+      <c r="C346" s="10"/>
+    </row>
+    <row r="347">
+      <c r="C347" s="10"/>
+    </row>
+    <row r="348">
+      <c r="C348" s="10"/>
+    </row>
+    <row r="349">
+      <c r="C349" s="10"/>
+    </row>
+    <row r="350">
+      <c r="C350" s="10"/>
+    </row>
+    <row r="351">
+      <c r="C351" s="10"/>
+    </row>
+    <row r="352">
+      <c r="C352" s="10"/>
+    </row>
+    <row r="353">
+      <c r="C353" s="10"/>
+    </row>
+    <row r="354">
+      <c r="C354" s="10"/>
+    </row>
+    <row r="355">
+      <c r="C355" s="10"/>
+    </row>
+    <row r="356">
+      <c r="C356" s="10"/>
+    </row>
+    <row r="357">
+      <c r="C357" s="10"/>
+    </row>
+    <row r="358">
+      <c r="C358" s="10"/>
+    </row>
+    <row r="359">
+      <c r="C359" s="10"/>
+    </row>
+    <row r="360">
+      <c r="C360" s="10"/>
+    </row>
+    <row r="361">
+      <c r="C361" s="10"/>
+    </row>
+    <row r="362">
+      <c r="C362" s="10"/>
+    </row>
+    <row r="363">
+      <c r="C363" s="10"/>
+    </row>
+    <row r="364">
+      <c r="C364" s="10"/>
+    </row>
+    <row r="365">
+      <c r="C365" s="10"/>
+    </row>
+    <row r="366">
+      <c r="C366" s="10"/>
+    </row>
+    <row r="367">
+      <c r="C367" s="10"/>
+    </row>
+    <row r="368">
+      <c r="C368" s="10"/>
+    </row>
+    <row r="369">
+      <c r="C369" s="10"/>
+    </row>
+    <row r="370">
+      <c r="C370" s="10"/>
+    </row>
+    <row r="371">
+      <c r="C371" s="10"/>
+    </row>
+    <row r="372">
+      <c r="C372" s="10"/>
+    </row>
+    <row r="373">
+      <c r="C373" s="10"/>
+    </row>
+    <row r="374">
+      <c r="C374" s="10"/>
+    </row>
+    <row r="375">
+      <c r="C375" s="10"/>
+    </row>
+    <row r="376">
+      <c r="C376" s="10"/>
+    </row>
+    <row r="377">
+      <c r="C377" s="10"/>
+    </row>
+    <row r="378">
+      <c r="C378" s="10"/>
+    </row>
+    <row r="379">
+      <c r="C379" s="10"/>
+    </row>
+    <row r="380">
+      <c r="C380" s="10"/>
+    </row>
+    <row r="381">
+      <c r="C381" s="10"/>
+    </row>
+    <row r="382">
+      <c r="C382" s="10"/>
+    </row>
+    <row r="383">
+      <c r="C383" s="10"/>
+    </row>
+    <row r="384">
+      <c r="C384" s="10"/>
+    </row>
+    <row r="385">
+      <c r="C385" s="10"/>
+    </row>
+    <row r="386">
+      <c r="C386" s="10"/>
+    </row>
+    <row r="387">
+      <c r="C387" s="10"/>
+    </row>
+    <row r="388">
+      <c r="C388" s="10"/>
+    </row>
+    <row r="389">
+      <c r="C389" s="10"/>
+    </row>
+    <row r="390">
+      <c r="C390" s="10"/>
+    </row>
+    <row r="391">
+      <c r="C391" s="10"/>
+    </row>
+    <row r="392">
+      <c r="C392" s="10"/>
+    </row>
+    <row r="393">
+      <c r="C393" s="10"/>
+    </row>
+    <row r="394">
+      <c r="C394" s="10"/>
+    </row>
+    <row r="395">
+      <c r="C395" s="10"/>
+    </row>
+    <row r="396">
+      <c r="C396" s="10"/>
+    </row>
+    <row r="397">
+      <c r="C397" s="10"/>
+    </row>
+    <row r="398">
+      <c r="C398" s="10"/>
+    </row>
+    <row r="399">
+      <c r="C399" s="10"/>
+    </row>
+    <row r="400">
+      <c r="C400" s="10"/>
+    </row>
+    <row r="401">
+      <c r="C401" s="10"/>
+    </row>
+    <row r="402">
+      <c r="C402" s="10"/>
+    </row>
+    <row r="403">
+      <c r="C403" s="10"/>
+    </row>
+    <row r="404">
+      <c r="C404" s="10"/>
+    </row>
+    <row r="405">
+      <c r="C405" s="10"/>
+    </row>
+    <row r="406">
+      <c r="C406" s="10"/>
+    </row>
+    <row r="407">
+      <c r="C407" s="10"/>
+    </row>
+    <row r="408">
+      <c r="C408" s="10"/>
+    </row>
+    <row r="409">
+      <c r="C409" s="10"/>
+    </row>
+    <row r="410">
+      <c r="C410" s="10"/>
+    </row>
+    <row r="411">
+      <c r="C411" s="10"/>
+    </row>
+    <row r="412">
+      <c r="C412" s="10"/>
+    </row>
+    <row r="413">
+      <c r="C413" s="10"/>
+    </row>
+    <row r="414">
+      <c r="C414" s="10"/>
+    </row>
+    <row r="415">
+      <c r="C415" s="10"/>
+    </row>
+    <row r="416">
+      <c r="C416" s="10"/>
+    </row>
+    <row r="417">
+      <c r="C417" s="10"/>
+    </row>
+    <row r="418">
+      <c r="C418" s="10"/>
+    </row>
+    <row r="419">
+      <c r="C419" s="10"/>
+    </row>
+    <row r="420">
+      <c r="C420" s="10"/>
+    </row>
+    <row r="421">
+      <c r="C421" s="10"/>
+    </row>
+    <row r="422">
+      <c r="C422" s="10"/>
+    </row>
+    <row r="423">
+      <c r="C423" s="10"/>
+    </row>
+    <row r="424">
+      <c r="C424" s="10"/>
+    </row>
+    <row r="425">
+      <c r="C425" s="10"/>
+    </row>
+    <row r="426">
+      <c r="C426" s="10"/>
+    </row>
+    <row r="427">
+      <c r="C427" s="10"/>
+    </row>
+    <row r="428">
+      <c r="C428" s="10"/>
+    </row>
+    <row r="429">
+      <c r="C429" s="10"/>
+    </row>
+    <row r="430">
+      <c r="C430" s="10"/>
+    </row>
+    <row r="431">
+      <c r="C431" s="10"/>
+    </row>
+    <row r="432">
+      <c r="C432" s="10"/>
+    </row>
+    <row r="433">
+      <c r="C433" s="10"/>
+    </row>
+    <row r="434">
+      <c r="C434" s="10"/>
+    </row>
+    <row r="435">
+      <c r="C435" s="10"/>
+    </row>
+    <row r="436">
+      <c r="C436" s="10"/>
+    </row>
+    <row r="437">
+      <c r="C437" s="10"/>
+    </row>
+    <row r="438">
+      <c r="C438" s="10"/>
+    </row>
+    <row r="439">
+      <c r="C439" s="10"/>
+    </row>
+    <row r="440">
+      <c r="C440" s="10"/>
+    </row>
+    <row r="441">
+      <c r="C441" s="10"/>
+    </row>
+    <row r="442">
+      <c r="C442" s="10"/>
+    </row>
+    <row r="443">
+      <c r="C443" s="10"/>
+    </row>
+    <row r="444">
+      <c r="C444" s="10"/>
+    </row>
+    <row r="445">
+      <c r="C445" s="10"/>
+    </row>
+    <row r="446">
+      <c r="C446" s="10"/>
+    </row>
+    <row r="447">
+      <c r="C447" s="10"/>
+    </row>
+    <row r="448">
+      <c r="C448" s="10"/>
+    </row>
+    <row r="449">
+      <c r="C449" s="10"/>
+    </row>
+    <row r="450">
+      <c r="C450" s="10"/>
+    </row>
+    <row r="451">
+      <c r="C451" s="10"/>
+    </row>
+    <row r="452">
+      <c r="C452" s="10"/>
+    </row>
+    <row r="453">
+      <c r="C453" s="10"/>
+    </row>
+    <row r="454">
+      <c r="C454" s="10"/>
+    </row>
+    <row r="455">
+      <c r="C455" s="10"/>
+    </row>
+    <row r="456">
+      <c r="C456" s="10"/>
+    </row>
+    <row r="457">
+      <c r="C457" s="10"/>
+    </row>
+    <row r="458">
+      <c r="C458" s="10"/>
+    </row>
+    <row r="459">
+      <c r="C459" s="10"/>
+    </row>
+    <row r="460">
+      <c r="C460" s="10"/>
+    </row>
+    <row r="461">
+      <c r="C461" s="10"/>
+    </row>
+    <row r="462">
+      <c r="C462" s="10"/>
+    </row>
+    <row r="463">
+      <c r="C463" s="10"/>
+    </row>
+    <row r="464">
+      <c r="C464" s="10"/>
+    </row>
+    <row r="465">
+      <c r="C465" s="10"/>
+    </row>
+    <row r="466">
+      <c r="C466" s="10"/>
+    </row>
+    <row r="467">
+      <c r="C467" s="10"/>
+    </row>
+    <row r="468">
+      <c r="C468" s="10"/>
+    </row>
+    <row r="469">
+      <c r="C469" s="10"/>
+    </row>
+    <row r="470">
+      <c r="C470" s="10"/>
+    </row>
+    <row r="471">
+      <c r="C471" s="10"/>
+    </row>
+    <row r="472">
+      <c r="C472" s="10"/>
+    </row>
+    <row r="473">
+      <c r="C473" s="10"/>
+    </row>
+    <row r="474">
+      <c r="C474" s="10"/>
+    </row>
+    <row r="475">
+      <c r="C475" s="10"/>
+    </row>
+    <row r="476">
+      <c r="C476" s="10"/>
+    </row>
+    <row r="477">
+      <c r="C477" s="10"/>
+    </row>
+    <row r="478">
+      <c r="C478" s="10"/>
+    </row>
+    <row r="479">
+      <c r="C479" s="10"/>
+    </row>
+    <row r="480">
+      <c r="C480" s="10"/>
+    </row>
+    <row r="481">
+      <c r="C481" s="10"/>
+    </row>
+    <row r="482">
+      <c r="C482" s="10"/>
+    </row>
+    <row r="483">
+      <c r="C483" s="10"/>
+    </row>
+    <row r="484">
+      <c r="C484" s="10"/>
+    </row>
+    <row r="485">
+      <c r="C485" s="10"/>
+    </row>
+    <row r="486">
+      <c r="C486" s="10"/>
+    </row>
+    <row r="487">
+      <c r="C487" s="10"/>
+    </row>
+    <row r="488">
+      <c r="C488" s="10"/>
+    </row>
+    <row r="489">
+      <c r="C489" s="10"/>
+    </row>
+    <row r="490">
+      <c r="C490" s="10"/>
+    </row>
+    <row r="491">
+      <c r="C491" s="10"/>
+    </row>
+    <row r="492">
+      <c r="C492" s="10"/>
+    </row>
+    <row r="493">
+      <c r="C493" s="10"/>
+    </row>
+    <row r="494">
+      <c r="C494" s="10"/>
+    </row>
+    <row r="495">
+      <c r="C495" s="10"/>
+    </row>
+    <row r="496">
+      <c r="C496" s="10"/>
+    </row>
+    <row r="497">
+      <c r="C497" s="10"/>
+    </row>
+    <row r="498">
+      <c r="C498" s="10"/>
+    </row>
+    <row r="499">
+      <c r="C499" s="10"/>
+    </row>
+    <row r="500">
+      <c r="C500" s="10"/>
+    </row>
+    <row r="501">
+      <c r="C501" s="10"/>
+    </row>
+    <row r="502">
+      <c r="C502" s="10"/>
+    </row>
+    <row r="503">
+      <c r="C503" s="10"/>
+    </row>
+    <row r="504">
+      <c r="C504" s="10"/>
+    </row>
+    <row r="505">
+      <c r="C505" s="10"/>
+    </row>
+    <row r="506">
+      <c r="C506" s="10"/>
+    </row>
+    <row r="507">
+      <c r="C507" s="10"/>
+    </row>
+    <row r="508">
+      <c r="C508" s="10"/>
+    </row>
+    <row r="509">
+      <c r="C509" s="10"/>
+    </row>
+    <row r="510">
+      <c r="C510" s="10"/>
+    </row>
+    <row r="511">
+      <c r="C511" s="10"/>
+    </row>
+    <row r="512">
+      <c r="C512" s="10"/>
+    </row>
+    <row r="513">
+      <c r="C513" s="10"/>
+    </row>
+    <row r="514">
+      <c r="C514" s="10"/>
+    </row>
+    <row r="515">
+      <c r="C515" s="10"/>
+    </row>
+    <row r="516">
+      <c r="C516" s="10"/>
+    </row>
+    <row r="517">
+      <c r="C517" s="10"/>
+    </row>
+    <row r="518">
+      <c r="C518" s="10"/>
+    </row>
+    <row r="519">
+      <c r="C519" s="10"/>
+    </row>
+    <row r="520">
+      <c r="C520" s="10"/>
+    </row>
+    <row r="521">
+      <c r="C521" s="10"/>
+    </row>
+    <row r="522">
+      <c r="C522" s="10"/>
+    </row>
+    <row r="523">
+      <c r="C523" s="10"/>
+    </row>
+    <row r="524">
+      <c r="C524" s="10"/>
+    </row>
+    <row r="525">
+      <c r="C525" s="10"/>
+    </row>
+    <row r="526">
+      <c r="C526" s="10"/>
+    </row>
+    <row r="527">
+      <c r="C527" s="10"/>
+    </row>
+    <row r="528">
+      <c r="C528" s="10"/>
+    </row>
+    <row r="529">
+      <c r="C529" s="10"/>
+    </row>
+    <row r="530">
+      <c r="C530" s="10"/>
+    </row>
+    <row r="531">
+      <c r="C531" s="10"/>
+    </row>
+    <row r="532">
+      <c r="C532" s="10"/>
+    </row>
+    <row r="533">
+      <c r="C533" s="10"/>
+    </row>
+    <row r="534">
+      <c r="C534" s="10"/>
+    </row>
+    <row r="535">
+      <c r="C535" s="10"/>
+    </row>
+    <row r="536">
+      <c r="C536" s="10"/>
+    </row>
+    <row r="537">
+      <c r="C537" s="10"/>
+    </row>
+    <row r="538">
+      <c r="C538" s="10"/>
+    </row>
+    <row r="539">
+      <c r="C539" s="10"/>
+    </row>
+    <row r="540">
+      <c r="C540" s="10"/>
+    </row>
+    <row r="541">
+      <c r="C541" s="10"/>
+    </row>
+    <row r="542">
+      <c r="C542" s="10"/>
+    </row>
+    <row r="543">
+      <c r="C543" s="10"/>
+    </row>
+    <row r="544">
+      <c r="C544" s="10"/>
+    </row>
+    <row r="545">
+      <c r="C545" s="10"/>
+    </row>
+    <row r="546">
+      <c r="C546" s="10"/>
+    </row>
+    <row r="547">
+      <c r="C547" s="10"/>
+    </row>
+    <row r="548">
+      <c r="C548" s="10"/>
+    </row>
+    <row r="549">
+      <c r="C549" s="10"/>
+    </row>
+    <row r="550">
+      <c r="C550" s="10"/>
+    </row>
+    <row r="551">
+      <c r="C551" s="10"/>
+    </row>
+    <row r="552">
+      <c r="C552" s="10"/>
+    </row>
+    <row r="553">
+      <c r="C553" s="10"/>
+    </row>
+    <row r="554">
+      <c r="C554" s="10"/>
+    </row>
+    <row r="555">
+      <c r="C555" s="10"/>
+    </row>
+    <row r="556">
+      <c r="C556" s="10"/>
+    </row>
+    <row r="557">
+      <c r="C557" s="10"/>
+    </row>
+    <row r="558">
+      <c r="C558" s="10"/>
+    </row>
+    <row r="559">
+      <c r="C559" s="10"/>
+    </row>
+    <row r="560">
+      <c r="C560" s="10"/>
+    </row>
+    <row r="561">
+      <c r="C561" s="10"/>
+    </row>
+    <row r="562">
+      <c r="C562" s="10"/>
+    </row>
+    <row r="563">
+      <c r="C563" s="10"/>
+    </row>
+    <row r="564">
+      <c r="C564" s="10"/>
+    </row>
+    <row r="565">
+      <c r="C565" s="10"/>
+    </row>
+    <row r="566">
+      <c r="C566" s="10"/>
+    </row>
+    <row r="567">
+      <c r="C567" s="10"/>
+    </row>
+    <row r="568">
+      <c r="C568" s="10"/>
+    </row>
+    <row r="569">
+      <c r="C569" s="10"/>
+    </row>
+    <row r="570">
+      <c r="C570" s="10"/>
+    </row>
+    <row r="571">
+      <c r="C571" s="10"/>
+    </row>
+    <row r="572">
+      <c r="C572" s="10"/>
+    </row>
+    <row r="573">
+      <c r="C573" s="10"/>
+    </row>
+    <row r="574">
+      <c r="C574" s="10"/>
+    </row>
+    <row r="575">
+      <c r="C575" s="10"/>
+    </row>
+    <row r="576">
+      <c r="C576" s="10"/>
+    </row>
+    <row r="577">
+      <c r="C577" s="10"/>
+    </row>
+    <row r="578">
+      <c r="C578" s="10"/>
+    </row>
+    <row r="579">
+      <c r="C579" s="10"/>
+    </row>
+    <row r="580">
+      <c r="C580" s="10"/>
+    </row>
+    <row r="581">
+      <c r="C581" s="10"/>
+    </row>
+    <row r="582">
+      <c r="C582" s="10"/>
+    </row>
+    <row r="583">
+      <c r="C583" s="10"/>
+    </row>
+    <row r="584">
+      <c r="C584" s="10"/>
+    </row>
+    <row r="585">
+      <c r="C585" s="10"/>
+    </row>
+    <row r="586">
+      <c r="C586" s="10"/>
+    </row>
+    <row r="587">
+      <c r="C587" s="10"/>
+    </row>
+    <row r="588">
+      <c r="C588" s="10"/>
+    </row>
+    <row r="589">
+      <c r="C589" s="10"/>
+    </row>
+    <row r="590">
+      <c r="C590" s="10"/>
+    </row>
+    <row r="591">
+      <c r="C591" s="10"/>
+    </row>
+    <row r="592">
+      <c r="C592" s="10"/>
+    </row>
+    <row r="593">
+      <c r="C593" s="10"/>
+    </row>
+    <row r="594">
+      <c r="C594" s="10"/>
+    </row>
+    <row r="595">
+      <c r="C595" s="10"/>
+    </row>
+    <row r="596">
+      <c r="C596" s="10"/>
+    </row>
+    <row r="597">
+      <c r="C597" s="10"/>
+    </row>
+    <row r="598">
+      <c r="C598" s="10"/>
+    </row>
+    <row r="599">
+      <c r="C599" s="10"/>
+    </row>
+    <row r="600">
+      <c r="C600" s="10"/>
+    </row>
+    <row r="601">
+      <c r="C601" s="10"/>
+    </row>
+    <row r="602">
+      <c r="C602" s="10"/>
+    </row>
+    <row r="603">
+      <c r="C603" s="10"/>
+    </row>
+    <row r="604">
+      <c r="C604" s="10"/>
+    </row>
+    <row r="605">
+      <c r="C605" s="10"/>
+    </row>
+    <row r="606">
+      <c r="C606" s="10"/>
+    </row>
+    <row r="607">
+      <c r="C607" s="10"/>
+    </row>
+    <row r="608">
+      <c r="C608" s="10"/>
+    </row>
+    <row r="609">
+      <c r="C609" s="10"/>
+    </row>
+    <row r="610">
+      <c r="C610" s="10"/>
+    </row>
+    <row r="611">
+      <c r="C611" s="10"/>
+    </row>
+    <row r="612">
+      <c r="C612" s="10"/>
+    </row>
+    <row r="613">
+      <c r="C613" s="10"/>
+    </row>
+    <row r="614">
+      <c r="C614" s="10"/>
+    </row>
+    <row r="615">
+      <c r="C615" s="10"/>
+    </row>
+    <row r="616">
+      <c r="C616" s="10"/>
+    </row>
+    <row r="617">
+      <c r="C617" s="10"/>
+    </row>
+    <row r="618">
+      <c r="C618" s="10"/>
+    </row>
+    <row r="619">
+      <c r="C619" s="10"/>
+    </row>
+    <row r="620">
+      <c r="C620" s="10"/>
+    </row>
+    <row r="621">
+      <c r="C621" s="10"/>
+    </row>
+    <row r="622">
+      <c r="C622" s="10"/>
+    </row>
+    <row r="623">
+      <c r="C623" s="10"/>
+    </row>
+    <row r="624">
+      <c r="C624" s="10"/>
+    </row>
+    <row r="625">
+      <c r="C625" s="10"/>
+    </row>
+    <row r="626">
+      <c r="C626" s="10"/>
+    </row>
+    <row r="627">
+      <c r="C627" s="10"/>
+    </row>
+    <row r="628">
+      <c r="C628" s="10"/>
+    </row>
+    <row r="629">
+      <c r="C629" s="10"/>
+    </row>
+    <row r="630">
+      <c r="C630" s="10"/>
+    </row>
+    <row r="631">
+      <c r="C631" s="10"/>
+    </row>
+    <row r="632">
+      <c r="C632" s="10"/>
+    </row>
+    <row r="633">
+      <c r="C633" s="10"/>
+    </row>
+    <row r="634">
+      <c r="C634" s="10"/>
+    </row>
+    <row r="635">
+      <c r="C635" s="10"/>
+    </row>
+    <row r="636">
+      <c r="C636" s="10"/>
+    </row>
+    <row r="637">
+      <c r="C637" s="10"/>
+    </row>
+    <row r="638">
+      <c r="C638" s="10"/>
+    </row>
+    <row r="639">
+      <c r="C639" s="10"/>
+    </row>
+    <row r="640">
+      <c r="C640" s="10"/>
+    </row>
+    <row r="641">
+      <c r="C641" s="10"/>
+    </row>
+    <row r="642">
+      <c r="C642" s="10"/>
+    </row>
+    <row r="643">
+      <c r="C643" s="10"/>
+    </row>
+    <row r="644">
+      <c r="C644" s="10"/>
+    </row>
+    <row r="645">
+      <c r="C645" s="10"/>
+    </row>
+    <row r="646">
+      <c r="C646" s="10"/>
+    </row>
+    <row r="647">
+      <c r="C647" s="10"/>
+    </row>
+    <row r="648">
+      <c r="C648" s="10"/>
+    </row>
+    <row r="649">
+      <c r="C649" s="10"/>
+    </row>
+    <row r="650">
+      <c r="C650" s="10"/>
+    </row>
+    <row r="651">
+      <c r="C651" s="10"/>
+    </row>
+    <row r="652">
+      <c r="C652" s="10"/>
+    </row>
+    <row r="653">
+      <c r="C653" s="10"/>
+    </row>
+    <row r="654">
+      <c r="C654" s="10"/>
+    </row>
+    <row r="655">
+      <c r="C655" s="10"/>
+    </row>
+    <row r="656">
+      <c r="C656" s="10"/>
+    </row>
+    <row r="657">
+      <c r="C657" s="10"/>
+    </row>
+    <row r="658">
+      <c r="C658" s="10"/>
+    </row>
+    <row r="659">
+      <c r="C659" s="10"/>
+    </row>
+    <row r="660">
+      <c r="C660" s="10"/>
+    </row>
+    <row r="661">
+      <c r="C661" s="10"/>
+    </row>
+    <row r="662">
+      <c r="C662" s="10"/>
+    </row>
+    <row r="663">
+      <c r="C663" s="10"/>
+    </row>
+    <row r="664">
+      <c r="C664" s="10"/>
+    </row>
+    <row r="665">
+      <c r="C665" s="10"/>
+    </row>
+    <row r="666">
+      <c r="C666" s="10"/>
+    </row>
+    <row r="667">
+      <c r="C667" s="10"/>
+    </row>
+    <row r="668">
+      <c r="C668" s="10"/>
+    </row>
+    <row r="669">
+      <c r="C669" s="10"/>
+    </row>
+    <row r="670">
+      <c r="C670" s="10"/>
+    </row>
+    <row r="671">
+      <c r="C671" s="10"/>
+    </row>
+    <row r="672">
+      <c r="C672" s="10"/>
+    </row>
+    <row r="673">
+      <c r="C673" s="10"/>
+    </row>
+    <row r="674">
+      <c r="C674" s="10"/>
+    </row>
+    <row r="675">
+      <c r="C675" s="10"/>
+    </row>
+    <row r="676">
+      <c r="C676" s="10"/>
+    </row>
+    <row r="677">
+      <c r="C677" s="10"/>
+    </row>
+    <row r="678">
+      <c r="C678" s="10"/>
+    </row>
+    <row r="679">
+      <c r="C679" s="10"/>
+    </row>
+    <row r="680">
+      <c r="C680" s="10"/>
+    </row>
+    <row r="681">
+      <c r="C681" s="10"/>
+    </row>
+    <row r="682">
+      <c r="C682" s="10"/>
+    </row>
+    <row r="683">
+      <c r="C683" s="10"/>
+    </row>
+    <row r="684">
+      <c r="C684" s="10"/>
+    </row>
+    <row r="685">
+      <c r="C685" s="10"/>
+    </row>
+    <row r="686">
+      <c r="C686" s="10"/>
+    </row>
+    <row r="687">
+      <c r="C687" s="10"/>
+    </row>
+    <row r="688">
+      <c r="C688" s="10"/>
+    </row>
+    <row r="689">
+      <c r="C689" s="10"/>
+    </row>
+    <row r="690">
+      <c r="C690" s="10"/>
+    </row>
+    <row r="691">
+      <c r="C691" s="10"/>
+    </row>
+    <row r="692">
+      <c r="C692" s="10"/>
+    </row>
+    <row r="693">
+      <c r="C693" s="10"/>
+    </row>
+    <row r="694">
+      <c r="C694" s="10"/>
+    </row>
+    <row r="695">
+      <c r="C695" s="10"/>
+    </row>
+    <row r="696">
+      <c r="C696" s="10"/>
+    </row>
+    <row r="697">
+      <c r="C697" s="10"/>
+    </row>
+    <row r="698">
+      <c r="C698" s="10"/>
+    </row>
+    <row r="699">
+      <c r="C699" s="10"/>
+    </row>
+    <row r="700">
+      <c r="C700" s="10"/>
+    </row>
+    <row r="701">
+      <c r="C701" s="10"/>
+    </row>
+    <row r="702">
+      <c r="C702" s="10"/>
+    </row>
+    <row r="703">
+      <c r="C703" s="10"/>
+    </row>
+    <row r="704">
+      <c r="C704" s="10"/>
+    </row>
+    <row r="705">
+      <c r="C705" s="10"/>
+    </row>
+    <row r="706">
+      <c r="C706" s="10"/>
+    </row>
+    <row r="707">
+      <c r="C707" s="10"/>
+    </row>
+    <row r="708">
+      <c r="C708" s="10"/>
+    </row>
+    <row r="709">
+      <c r="C709" s="10"/>
+    </row>
+    <row r="710">
+      <c r="C710" s="10"/>
+    </row>
+    <row r="711">
+      <c r="C711" s="10"/>
+    </row>
+    <row r="712">
+      <c r="C712" s="10"/>
+    </row>
+    <row r="713">
+      <c r="C713" s="10"/>
+    </row>
+    <row r="714">
+      <c r="C714" s="10"/>
+    </row>
+    <row r="715">
+      <c r="C715" s="10"/>
+    </row>
+    <row r="716">
+      <c r="C716" s="10"/>
+    </row>
+    <row r="717">
+      <c r="C717" s="10"/>
+    </row>
+    <row r="718">
+      <c r="C718" s="10"/>
+    </row>
+    <row r="719">
+      <c r="C719" s="10"/>
+    </row>
+    <row r="720">
+      <c r="C720" s="10"/>
+    </row>
+    <row r="721">
+      <c r="C721" s="10"/>
+    </row>
+    <row r="722">
+      <c r="C722" s="10"/>
+    </row>
+    <row r="723">
+      <c r="C723" s="10"/>
+    </row>
+    <row r="724">
+      <c r="C724" s="10"/>
+    </row>
+    <row r="725">
+      <c r="C725" s="10"/>
+    </row>
+    <row r="726">
+      <c r="C726" s="10"/>
+    </row>
+    <row r="727">
+      <c r="C727" s="10"/>
+    </row>
+    <row r="728">
+      <c r="C728" s="10"/>
+    </row>
+    <row r="729">
+      <c r="C729" s="10"/>
+    </row>
+    <row r="730">
+      <c r="C730" s="10"/>
+    </row>
+    <row r="731">
+      <c r="C731" s="10"/>
+    </row>
+    <row r="732">
+      <c r="C732" s="10"/>
+    </row>
+    <row r="733">
+      <c r="C733" s="10"/>
+    </row>
+    <row r="734">
+      <c r="C734" s="10"/>
+    </row>
+    <row r="735">
+      <c r="C735" s="10"/>
+    </row>
+    <row r="736">
+      <c r="C736" s="10"/>
+    </row>
+    <row r="737">
+      <c r="C737" s="10"/>
+    </row>
+    <row r="738">
+      <c r="C738" s="10"/>
+    </row>
+    <row r="739">
+      <c r="C739" s="10"/>
+    </row>
+    <row r="740">
+      <c r="C740" s="10"/>
+    </row>
+    <row r="741">
+      <c r="C741" s="10"/>
+    </row>
+    <row r="742">
+      <c r="C742" s="10"/>
+    </row>
+    <row r="743">
+      <c r="C743" s="10"/>
+    </row>
+    <row r="744">
+      <c r="C744" s="10"/>
+    </row>
+    <row r="745">
+      <c r="C745" s="10"/>
+    </row>
+    <row r="746">
+      <c r="C746" s="10"/>
+    </row>
+    <row r="747">
+      <c r="C747" s="10"/>
+    </row>
+    <row r="748">
+      <c r="C748" s="10"/>
+    </row>
+    <row r="749">
+      <c r="C749" s="10"/>
+    </row>
+    <row r="750">
+      <c r="C750" s="10"/>
+    </row>
+    <row r="751">
+      <c r="C751" s="10"/>
+    </row>
+    <row r="752">
+      <c r="C752" s="10"/>
+    </row>
+    <row r="753">
+      <c r="C753" s="10"/>
+    </row>
+    <row r="754">
+      <c r="C754" s="10"/>
+    </row>
+    <row r="755">
+      <c r="C755" s="10"/>
+    </row>
+    <row r="756">
+      <c r="C756" s="10"/>
+    </row>
+    <row r="757">
+      <c r="C757" s="10"/>
+    </row>
+    <row r="758">
+      <c r="C758" s="10"/>
+    </row>
+    <row r="759">
+      <c r="C759" s="10"/>
+    </row>
+    <row r="760">
+      <c r="C760" s="10"/>
+    </row>
+    <row r="761">
+      <c r="C761" s="10"/>
+    </row>
+    <row r="762">
+      <c r="C762" s="10"/>
+    </row>
+    <row r="763">
+      <c r="C763" s="10"/>
+    </row>
+    <row r="764">
+      <c r="C764" s="10"/>
+    </row>
+    <row r="765">
+      <c r="C765" s="10"/>
+    </row>
+    <row r="766">
+      <c r="C766" s="10"/>
+    </row>
+    <row r="767">
+      <c r="C767" s="10"/>
+    </row>
+    <row r="768">
+      <c r="C768" s="10"/>
+    </row>
+    <row r="769">
+      <c r="C769" s="10"/>
+    </row>
+    <row r="770">
+      <c r="C770" s="10"/>
+    </row>
+    <row r="771">
+      <c r="C771" s="10"/>
+    </row>
+    <row r="772">
+      <c r="C772" s="10"/>
+    </row>
+    <row r="773">
+      <c r="C773" s="10"/>
+    </row>
+    <row r="774">
+      <c r="C774" s="10"/>
+    </row>
+    <row r="775">
+      <c r="C775" s="10"/>
+    </row>
+    <row r="776">
+      <c r="C776" s="10"/>
+    </row>
+    <row r="777">
+      <c r="C777" s="10"/>
+    </row>
+    <row r="778">
+      <c r="C778" s="10"/>
+    </row>
+    <row r="779">
+      <c r="C779" s="10"/>
+    </row>
+    <row r="780">
+      <c r="C780" s="10"/>
+    </row>
+    <row r="781">
+      <c r="C781" s="10"/>
+    </row>
+    <row r="782">
+      <c r="C782" s="10"/>
+    </row>
+    <row r="783">
+      <c r="C783" s="10"/>
+    </row>
+    <row r="784">
+      <c r="C784" s="10"/>
+    </row>
+    <row r="785">
+      <c r="C785" s="10"/>
+    </row>
+    <row r="786">
+      <c r="C786" s="10"/>
+    </row>
+    <row r="787">
+      <c r="C787" s="10"/>
+    </row>
+    <row r="788">
+      <c r="C788" s="10"/>
+    </row>
+    <row r="789">
+      <c r="C789" s="10"/>
+    </row>
+    <row r="790">
+      <c r="C790" s="10"/>
+    </row>
+    <row r="791">
+      <c r="C791" s="10"/>
+    </row>
+    <row r="792">
+      <c r="C792" s="10"/>
+    </row>
+    <row r="793">
+      <c r="C793" s="10"/>
+    </row>
+    <row r="794">
+      <c r="C794" s="10"/>
+    </row>
+    <row r="795">
+      <c r="C795" s="10"/>
+    </row>
+    <row r="796">
+      <c r="C796" s="10"/>
+    </row>
+    <row r="797">
+      <c r="C797" s="10"/>
+    </row>
+    <row r="798">
+      <c r="C798" s="10"/>
+    </row>
+    <row r="799">
+      <c r="C799" s="10"/>
+    </row>
+    <row r="800">
+      <c r="C800" s="10"/>
+    </row>
+    <row r="801">
+      <c r="C801" s="10"/>
+    </row>
+    <row r="802">
+      <c r="C802" s="10"/>
+    </row>
+    <row r="803">
+      <c r="C803" s="10"/>
+    </row>
+    <row r="804">
+      <c r="C804" s="10"/>
+    </row>
+    <row r="805">
+      <c r="C805" s="10"/>
+    </row>
+    <row r="806">
+      <c r="C806" s="10"/>
+    </row>
+    <row r="807">
+      <c r="C807" s="10"/>
+    </row>
+    <row r="808">
+      <c r="C808" s="10"/>
+    </row>
+    <row r="809">
+      <c r="C809" s="10"/>
+    </row>
+    <row r="810">
+      <c r="C810" s="10"/>
+    </row>
+    <row r="811">
+      <c r="C811" s="10"/>
+    </row>
+    <row r="812">
+      <c r="C812" s="10"/>
+    </row>
+    <row r="813">
+      <c r="C813" s="10"/>
+    </row>
+    <row r="814">
+      <c r="C814" s="10"/>
+    </row>
+    <row r="815">
+      <c r="C815" s="10"/>
+    </row>
+    <row r="816">
+      <c r="C816" s="10"/>
+    </row>
+    <row r="817">
+      <c r="C817" s="10"/>
+    </row>
+    <row r="818">
+      <c r="C818" s="10"/>
+    </row>
+    <row r="819">
+      <c r="C819" s="10"/>
+    </row>
+    <row r="820">
+      <c r="C820" s="10"/>
+    </row>
+    <row r="821">
+      <c r="C821" s="10"/>
+    </row>
+    <row r="822">
+      <c r="C822" s="10"/>
+    </row>
+    <row r="823">
+      <c r="C823" s="10"/>
+    </row>
+    <row r="824">
+      <c r="C824" s="10"/>
+    </row>
+    <row r="825">
+      <c r="C825" s="10"/>
+    </row>
+    <row r="826">
+      <c r="C826" s="10"/>
+    </row>
+    <row r="827">
+      <c r="C827" s="10"/>
+    </row>
+    <row r="828">
+      <c r="C828" s="10"/>
+    </row>
+    <row r="829">
+      <c r="C829" s="10"/>
+    </row>
+    <row r="830">
+      <c r="C830" s="10"/>
+    </row>
+    <row r="831">
+      <c r="C831" s="10"/>
+    </row>
+    <row r="832">
+      <c r="C832" s="10"/>
+    </row>
+    <row r="833">
+      <c r="C833" s="10"/>
+    </row>
+    <row r="834">
+      <c r="C834" s="10"/>
+    </row>
+    <row r="835">
+      <c r="C835" s="10"/>
+    </row>
+    <row r="836">
+      <c r="C836" s="10"/>
+    </row>
+    <row r="837">
+      <c r="C837" s="10"/>
+    </row>
+    <row r="838">
+      <c r="C838" s="10"/>
+    </row>
+    <row r="839">
+      <c r="C839" s="10"/>
+    </row>
+    <row r="840">
+      <c r="C840" s="10"/>
+    </row>
+    <row r="841">
+      <c r="C841" s="10"/>
+    </row>
+    <row r="842">
+      <c r="C842" s="10"/>
+    </row>
+    <row r="843">
+      <c r="C843" s="10"/>
+    </row>
+    <row r="844">
+      <c r="C844" s="10"/>
+    </row>
+    <row r="845">
+      <c r="C845" s="10"/>
+    </row>
+    <row r="846">
+      <c r="C846" s="10"/>
+    </row>
+    <row r="847">
+      <c r="C847" s="10"/>
+    </row>
+    <row r="848">
+      <c r="C848" s="10"/>
+    </row>
+    <row r="849">
+      <c r="C849" s="10"/>
+    </row>
+    <row r="850">
+      <c r="C850" s="10"/>
+    </row>
+    <row r="851">
+      <c r="C851" s="10"/>
+    </row>
+    <row r="852">
+      <c r="C852" s="10"/>
+    </row>
+    <row r="853">
+      <c r="C853" s="10"/>
+    </row>
+    <row r="854">
+      <c r="C854" s="10"/>
+    </row>
+    <row r="855">
+      <c r="C855" s="10"/>
+    </row>
+    <row r="856">
+      <c r="C856" s="10"/>
+    </row>
+    <row r="857">
+      <c r="C857" s="10"/>
+    </row>
+    <row r="858">
+      <c r="C858" s="10"/>
+    </row>
+    <row r="859">
+      <c r="C859" s="10"/>
+    </row>
+    <row r="860">
+      <c r="C860" s="10"/>
+    </row>
+    <row r="861">
+      <c r="C861" s="10"/>
+    </row>
+    <row r="862">
+      <c r="C862" s="10"/>
+    </row>
+    <row r="863">
+      <c r="C863" s="10"/>
+    </row>
+    <row r="864">
+      <c r="C864" s="10"/>
+    </row>
+    <row r="865">
+      <c r="C865" s="10"/>
+    </row>
+    <row r="866">
+      <c r="C866" s="10"/>
+    </row>
+    <row r="867">
+      <c r="C867" s="10"/>
+    </row>
+    <row r="868">
+      <c r="C868" s="10"/>
+    </row>
+    <row r="869">
+      <c r="C869" s="10"/>
+    </row>
+    <row r="870">
+      <c r="C870" s="10"/>
+    </row>
+    <row r="871">
+      <c r="C871" s="10"/>
+    </row>
+    <row r="872">
+      <c r="C872" s="10"/>
+    </row>
+    <row r="873">
+      <c r="C873" s="10"/>
+    </row>
+    <row r="874">
+      <c r="C874" s="10"/>
+    </row>
+    <row r="875">
+      <c r="C875" s="10"/>
+    </row>
+    <row r="876">
+      <c r="C876" s="10"/>
+    </row>
+    <row r="877">
+      <c r="C877" s="10"/>
+    </row>
+    <row r="878">
+      <c r="C878" s="10"/>
+    </row>
+    <row r="879">
+      <c r="C879" s="10"/>
+    </row>
+    <row r="880">
+      <c r="C880" s="10"/>
+    </row>
+    <row r="881">
+      <c r="C881" s="10"/>
+    </row>
+    <row r="882">
+      <c r="C882" s="10"/>
+    </row>
+    <row r="883">
+      <c r="C883" s="10"/>
+    </row>
+    <row r="884">
+      <c r="C884" s="10"/>
+    </row>
+    <row r="885">
+      <c r="C885" s="10"/>
+    </row>
+    <row r="886">
+      <c r="C886" s="10"/>
+    </row>
+    <row r="887">
+      <c r="C887" s="10"/>
+    </row>
+    <row r="888">
+      <c r="C888" s="10"/>
+    </row>
+    <row r="889">
+      <c r="C889" s="10"/>
+    </row>
+    <row r="890">
+      <c r="C890" s="10"/>
+    </row>
+    <row r="891">
+      <c r="C891" s="10"/>
+    </row>
+    <row r="892">
+      <c r="C892" s="10"/>
+    </row>
+    <row r="893">
+      <c r="C893" s="10"/>
+    </row>
+    <row r="894">
+      <c r="C894" s="10"/>
+    </row>
+    <row r="895">
+      <c r="C895" s="10"/>
+    </row>
+    <row r="896">
+      <c r="C896" s="10"/>
+    </row>
+    <row r="897">
+      <c r="C897" s="10"/>
+    </row>
+    <row r="898">
+      <c r="C898" s="10"/>
+    </row>
+    <row r="899">
+      <c r="C899" s="10"/>
+    </row>
+    <row r="900">
+      <c r="C900" s="10"/>
+    </row>
+    <row r="901">
+      <c r="C901" s="10"/>
+    </row>
+    <row r="902">
+      <c r="C902" s="10"/>
+    </row>
+    <row r="903">
+      <c r="C903" s="10"/>
+    </row>
+    <row r="904">
+      <c r="C904" s="10"/>
+    </row>
+    <row r="905">
+      <c r="C905" s="10"/>
+    </row>
+    <row r="906">
+      <c r="C906" s="10"/>
+    </row>
+    <row r="907">
+      <c r="C907" s="10"/>
+    </row>
+    <row r="908">
+      <c r="C908" s="10"/>
+    </row>
+    <row r="909">
+      <c r="C909" s="10"/>
+    </row>
+    <row r="910">
+      <c r="C910" s="10"/>
+    </row>
+    <row r="911">
+      <c r="C911" s="10"/>
+    </row>
+    <row r="912">
+      <c r="C912" s="10"/>
+    </row>
+    <row r="913">
+      <c r="C913" s="10"/>
+    </row>
+    <row r="914">
+      <c r="C914" s="10"/>
+    </row>
+    <row r="915">
+      <c r="C915" s="10"/>
+    </row>
+    <row r="916">
+      <c r="C916" s="10"/>
+    </row>
+    <row r="917">
+      <c r="C917" s="10"/>
+    </row>
+    <row r="918">
+      <c r="C918" s="10"/>
+    </row>
+    <row r="919">
+      <c r="C919" s="10"/>
+    </row>
+    <row r="920">
+      <c r="C920" s="10"/>
+    </row>
+    <row r="921">
+      <c r="C921" s="10"/>
+    </row>
+    <row r="922">
+      <c r="C922" s="10"/>
+    </row>
+    <row r="923">
+      <c r="C923" s="10"/>
+    </row>
+    <row r="924">
+      <c r="C924" s="10"/>
+    </row>
+    <row r="925">
+      <c r="C925" s="10"/>
+    </row>
+    <row r="926">
+      <c r="C926" s="10"/>
+    </row>
+    <row r="927">
+      <c r="C927" s="10"/>
+    </row>
+    <row r="928">
+      <c r="C928" s="10"/>
+    </row>
+    <row r="929">
+      <c r="C929" s="10"/>
+    </row>
+    <row r="930">
+      <c r="C930" s="10"/>
+    </row>
+    <row r="931">
+      <c r="C931" s="10"/>
+    </row>
+    <row r="932">
+      <c r="C932" s="10"/>
+    </row>
+    <row r="933">
+      <c r="C933" s="10"/>
+    </row>
+    <row r="934">
+      <c r="C934" s="10"/>
+    </row>
+    <row r="935">
+      <c r="C935" s="10"/>
+    </row>
+    <row r="936">
+      <c r="C936" s="10"/>
+    </row>
+    <row r="937">
+      <c r="C937" s="10"/>
+    </row>
+    <row r="938">
+      <c r="C938" s="10"/>
+    </row>
+    <row r="939">
+      <c r="C939" s="10"/>
+    </row>
+    <row r="940">
+      <c r="C940" s="10"/>
+    </row>
+    <row r="941">
+      <c r="C941" s="10"/>
+    </row>
+    <row r="942">
+      <c r="C942" s="10"/>
+    </row>
+    <row r="943">
+      <c r="C943" s="10"/>
+    </row>
+    <row r="944">
+      <c r="C944" s="10"/>
+    </row>
+    <row r="945">
+      <c r="C945" s="10"/>
+    </row>
+    <row r="946">
+      <c r="C946" s="10"/>
+    </row>
+    <row r="947">
+      <c r="C947" s="10"/>
+    </row>
+    <row r="948">
+      <c r="C948" s="10"/>
+    </row>
+    <row r="949">
+      <c r="C949" s="10"/>
+    </row>
+    <row r="950">
+      <c r="C950" s="10"/>
+    </row>
+    <row r="951">
+      <c r="C951" s="10"/>
+    </row>
+    <row r="952">
+      <c r="C952" s="10"/>
+    </row>
+    <row r="953">
+      <c r="C953" s="10"/>
+    </row>
+    <row r="954">
+      <c r="C954" s="10"/>
+    </row>
+    <row r="955">
+      <c r="C955" s="10"/>
+    </row>
+    <row r="956">
+      <c r="C956" s="10"/>
+    </row>
+    <row r="957">
+      <c r="C957" s="10"/>
+    </row>
+    <row r="958">
+      <c r="C958" s="10"/>
+    </row>
+    <row r="959">
+      <c r="C959" s="10"/>
+    </row>
+    <row r="960">
+      <c r="C960" s="10"/>
+    </row>
+    <row r="961">
+      <c r="C961" s="10"/>
+    </row>
+    <row r="962">
+      <c r="C962" s="10"/>
+    </row>
+    <row r="963">
+      <c r="C963" s="10"/>
+    </row>
+    <row r="964">
+      <c r="C964" s="10"/>
+    </row>
+    <row r="965">
+      <c r="C965" s="10"/>
+    </row>
+    <row r="966">
+      <c r="C966" s="10"/>
+    </row>
+    <row r="967">
+      <c r="C967" s="10"/>
+    </row>
+    <row r="968">
+      <c r="C968" s="10"/>
+    </row>
+    <row r="969">
+      <c r="C969" s="10"/>
+    </row>
+    <row r="970">
+      <c r="C970" s="10"/>
+    </row>
+    <row r="971">
+      <c r="C971" s="10"/>
+    </row>
+    <row r="972">
+      <c r="C972" s="10"/>
+    </row>
+    <row r="973">
+      <c r="C973" s="10"/>
+    </row>
+    <row r="974">
+      <c r="C974" s="10"/>
+    </row>
+    <row r="975">
+      <c r="C975" s="10"/>
+    </row>
+    <row r="976">
+      <c r="C976" s="10"/>
+    </row>
+    <row r="977">
+      <c r="C977" s="10"/>
+    </row>
+    <row r="978">
+      <c r="C978" s="10"/>
+    </row>
+    <row r="979">
+      <c r="C979" s="10"/>
+    </row>
+    <row r="980">
+      <c r="C980" s="10"/>
+    </row>
+    <row r="981">
+      <c r="C981" s="10"/>
+    </row>
+    <row r="982">
+      <c r="C982" s="10"/>
+    </row>
+    <row r="983">
+      <c r="C983" s="10"/>
+    </row>
+    <row r="984">
+      <c r="C984" s="10"/>
+    </row>
+    <row r="985">
+      <c r="C985" s="10"/>
+    </row>
+    <row r="986">
+      <c r="C986" s="10"/>
+    </row>
+    <row r="987">
+      <c r="C987" s="10"/>
+    </row>
+    <row r="988">
+      <c r="C988" s="10"/>
+    </row>
+    <row r="989">
+      <c r="C989" s="10"/>
+    </row>
+    <row r="990">
+      <c r="C990" s="10"/>
+    </row>
+    <row r="991">
+      <c r="C991" s="10"/>
+    </row>
+    <row r="992">
+      <c r="C992" s="10"/>
+    </row>
+    <row r="993">
+      <c r="C993" s="10"/>
+    </row>
+    <row r="994">
+      <c r="C994" s="10"/>
+    </row>
+    <row r="995">
+      <c r="C995" s="10"/>
+    </row>
+    <row r="996">
+      <c r="C996" s="10"/>
+    </row>
+    <row r="997">
+      <c r="C997" s="10"/>
+    </row>
+    <row r="998">
+      <c r="C998" s="10"/>
+    </row>
+    <row r="999">
+      <c r="C999" s="10"/>
+    </row>
+    <row r="1000">
+      <c r="C1000" s="10"/>
+    </row>
+    <row r="1001">
+      <c r="C1001" s="10"/>
+    </row>
+    <row r="1002">
+      <c r="C1002" s="10"/>
+    </row>
+    <row r="1003">
+      <c r="C1003" s="10"/>
+    </row>
+    <row r="1004">
+      <c r="C1004" s="10"/>
+    </row>
+    <row r="1005">
+      <c r="C1005" s="10"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" location="%E6%8A%80%E8%83%BD%E7%B1%BB%E5%9E%8B" ref="C25"/>
+    <hyperlink r:id="rId2" location="%E7%90%83%E7%B1%BB%E5%9E%8B" ref="C29"/>
+  </hyperlinks>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20">
+        <v>1063.0</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="F1" s="22"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="10"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20">
+        <v>1064.0</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="20">
+        <v>3.0</v>
+      </c>
+      <c r="F2" s="22"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="10"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20">
+        <v>1065.0</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="10"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20">
+        <v>1066.0</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="20">
+        <v>5.0</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="10"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20">
+        <v>1067.0</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="20">
+        <v>5.0</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="10"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20">
+        <v>1068.0</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="20">
+        <v>3.0</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="10"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20">
+        <v>1069.0</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="10"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20">
+        <v>1070.0</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="10"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20">
+        <v>1071.0</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="20">
+        <v>5.0</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="10"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20">
+        <v>1072.0</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="20">
+        <v>5.0</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="10"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20">
+        <v>1073.0</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="20">
+        <v>3.0</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="10"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20">
+        <v>1074.0</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="10"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20">
+        <v>1075.0</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="10"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20">
+        <v>1076.0</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="20">
+        <v>5.0</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="10"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20">
+        <v>1077.0</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="20">
+        <v>5.0</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11">
+        <v>1078.0</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="F16" s="11">
+        <v>10.0</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11">
+        <v>1079.0</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="10"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16">
+        <v>1080.0</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="16">
+        <v>8.0</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="10"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16">
+        <v>1081.0</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="16">
+        <v>16.0</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="10"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16">
+        <v>1082.0</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="26"/>
+      <c r="F20" s="16">
+        <v>24.0</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="10"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16">
+        <v>1083.0</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="16">
+        <v>20.0</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="10"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16">
+        <v>1084.0</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="16">
+        <v>29.0</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="10"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16">
+        <v>1085.0</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="26"/>
+      <c r="F23" s="16">
+        <v>34.0</v>
+      </c>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="10"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16">
+        <v>1086.0</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="26"/>
+      <c r="F24" s="16">
+        <v>39.0</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16">
+        <v>1087.0</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="26"/>
+      <c r="F25" s="16">
+        <v>35.0</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="10"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16">
+        <v>1088.0</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="26"/>
+      <c r="F26" s="16">
+        <v>44.0</v>
+      </c>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="10"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16">
+        <v>1089.0</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="26"/>
+      <c r="F27" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="10"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16">
+        <v>1090.0</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="16">
+        <v>49.0</v>
+      </c>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="10"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16">
+        <v>1091.0</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="26"/>
+      <c r="F29" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="10"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16">
+        <v>1092.0</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="26"/>
+      <c r="F30" s="16">
+        <v>54.0</v>
+      </c>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="10"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16">
+        <v>1093.0</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="26"/>
+      <c r="F31" s="27">
+        <v>0.4</v>
+      </c>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="10"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16">
+        <v>1094.0</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="26"/>
+      <c r="F32" s="16">
+        <v>55.0</v>
+      </c>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="10"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16">
+        <v>1095.0</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="26"/>
+      <c r="F33" s="16">
+        <v>20.0</v>
+      </c>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="10"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16">
+        <v>1096.0</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" s="26"/>
+      <c r="F34" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16" t="s">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/CourseCardSystem/SkillConfig.xlsx
+++ b/CourseCardSystem/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="other" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="110">
   <si>
     <t>skill_id</t>
   </si>
@@ -301,6 +301,9 @@
     <t>Spinner_side_spin +20</t>
   </si>
   <si>
+    <t>wxj</t>
+  </si>
+  <si>
     <t>jump ball bounce +5%</t>
   </si>
   <si>
@@ -310,7 +313,10 @@
     <t>moon_top_spin +10</t>
   </si>
   <si>
-    <t>ball_bounce +20%</t>
+    <t>skill_moon_reduce_wind</t>
+  </si>
+  <si>
+    <t>moon_wind -10%</t>
   </si>
   <si>
     <t>lava_power</t>
@@ -344,7 +350,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -376,6 +382,11 @@
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font/>
+    <font>
+      <sz val="12.0"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -423,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -488,13 +499,22 @@
     <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -2960,6 +2980,464 @@
         <v>85</v>
       </c>
     </row>
+    <row r="66">
+      <c r="D66" s="20"/>
+      <c r="E66" s="20">
+        <v>1063.0</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="H66" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="I66" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="M66" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="D67" s="20"/>
+      <c r="E67" s="20">
+        <v>1064.0</v>
+      </c>
+      <c r="F67" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G67" s="20">
+        <v>3.0</v>
+      </c>
+      <c r="H67" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="I67" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="J67" s="25"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="M67" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="D68" s="20"/>
+      <c r="E68" s="20">
+        <v>1065.0</v>
+      </c>
+      <c r="F68" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="H68" s="22">
+        <v>8.0</v>
+      </c>
+      <c r="I68" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="M68" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="D69" s="20"/>
+      <c r="E69" s="20">
+        <v>1066.0</v>
+      </c>
+      <c r="F69" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G69" s="20">
+        <v>5.0</v>
+      </c>
+      <c r="H69" s="22">
+        <v>10.0</v>
+      </c>
+      <c r="I69" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="J69" s="22">
+        <v>31.0</v>
+      </c>
+      <c r="K69" s="20"/>
+      <c r="L69" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="M69" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="D70" s="20"/>
+      <c r="E70" s="20">
+        <v>1067.0</v>
+      </c>
+      <c r="F70" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G70" s="20">
+        <v>5.0</v>
+      </c>
+      <c r="H70" s="22">
+        <v>10.0</v>
+      </c>
+      <c r="I70" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="J70" s="22">
+        <v>32.0</v>
+      </c>
+      <c r="K70" s="20"/>
+      <c r="L70" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="M70" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="D71" s="20"/>
+      <c r="E71" s="20">
+        <v>1068.0</v>
+      </c>
+      <c r="F71" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G71" s="20">
+        <v>3.0</v>
+      </c>
+      <c r="H71" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="I71" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="J71" s="25"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="M71" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="D72" s="20"/>
+      <c r="E72" s="20">
+        <v>1069.0</v>
+      </c>
+      <c r="F72" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="H72" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="I72" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="J72" s="21"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="M72" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="D73" s="20"/>
+      <c r="E73" s="20">
+        <v>1070.0</v>
+      </c>
+      <c r="F73" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="H73" s="22">
+        <v>8.0</v>
+      </c>
+      <c r="I73" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="M73" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="D74" s="20"/>
+      <c r="E74" s="20">
+        <v>1071.0</v>
+      </c>
+      <c r="F74" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G74" s="20">
+        <v>5.0</v>
+      </c>
+      <c r="H74" s="22">
+        <v>10.0</v>
+      </c>
+      <c r="I74" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="J74" s="22">
+        <v>31.0</v>
+      </c>
+      <c r="K74" s="20"/>
+      <c r="L74" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="M74" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="D75" s="20"/>
+      <c r="E75" s="20">
+        <v>1072.0</v>
+      </c>
+      <c r="F75" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G75" s="20">
+        <v>5.0</v>
+      </c>
+      <c r="H75" s="22">
+        <v>10.0</v>
+      </c>
+      <c r="I75" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="J75" s="22">
+        <v>32.0</v>
+      </c>
+      <c r="K75" s="20"/>
+      <c r="L75" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="M75" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="D76" s="20"/>
+      <c r="E76" s="20">
+        <v>1073.0</v>
+      </c>
+      <c r="F76" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G76" s="20">
+        <v>3.0</v>
+      </c>
+      <c r="H76" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="I76" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="J76" s="25"/>
+      <c r="K76" s="25"/>
+      <c r="L76" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="M76" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="D77" s="20"/>
+      <c r="E77" s="20">
+        <v>1074.0</v>
+      </c>
+      <c r="F77" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="H77" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="I77" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="J77" s="21"/>
+      <c r="K77" s="21"/>
+      <c r="L77" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="M77" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="D78" s="20"/>
+      <c r="E78" s="20">
+        <v>1075.0</v>
+      </c>
+      <c r="F78" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="H78" s="22">
+        <v>8.0</v>
+      </c>
+      <c r="I78" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="J78" s="21"/>
+      <c r="K78" s="21"/>
+      <c r="L78" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="M78" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="D79" s="20"/>
+      <c r="E79" s="20">
+        <v>1076.0</v>
+      </c>
+      <c r="F79" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G79" s="20">
+        <v>5.0</v>
+      </c>
+      <c r="H79" s="22">
+        <v>10.0</v>
+      </c>
+      <c r="I79" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="J79" s="22">
+        <v>31.0</v>
+      </c>
+      <c r="K79" s="20"/>
+      <c r="L79" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="M79" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="D80" s="20"/>
+      <c r="E80" s="20">
+        <v>1077.0</v>
+      </c>
+      <c r="F80" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G80" s="20">
+        <v>5.0</v>
+      </c>
+      <c r="H80" s="22">
+        <v>10.0</v>
+      </c>
+      <c r="I80" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="J80" s="22">
+        <v>32.0</v>
+      </c>
+      <c r="K80" s="20"/>
+      <c r="L80" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="M80" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="D81" s="27"/>
+      <c r="E81" s="22">
+        <v>1078.0</v>
+      </c>
+      <c r="F81" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="G81" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="H81" s="22">
+        <v>-10.0</v>
+      </c>
+      <c r="I81" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="J81" s="22">
+        <v>31.0</v>
+      </c>
+      <c r="K81" s="27"/>
+      <c r="L81" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="M81" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="D82" s="27"/>
+      <c r="E82" s="22">
+        <v>1079.0</v>
+      </c>
+      <c r="F82" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="G82" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="H82" s="22">
+        <v>-10.0</v>
+      </c>
+      <c r="I82" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="J82" s="22">
+        <v>32.0</v>
+      </c>
+      <c r="K82" s="27"/>
+      <c r="L82" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="M82" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
     <row r="99">
       <c r="C99" s="10"/>
     </row>
@@ -5712,11 +6190,11 @@
       <c r="E1" s="20">
         <v>1.0</v>
       </c>
-      <c r="F1" s="22"/>
+      <c r="F1" s="27"/>
       <c r="G1" s="21"/>
       <c r="H1" s="21"/>
       <c r="I1" s="21"/>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="24" t="s">
         <v>84</v>
       </c>
     </row>
@@ -5726,18 +6204,18 @@
       <c r="C2" s="20">
         <v>1064.0</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="25" t="s">
         <v>64</v>
       </c>
       <c r="E2" s="20">
         <v>3.0</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="23" t="s">
-        <v>95</v>
+      <c r="F2" s="27"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="24" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="3">
@@ -5752,11 +6230,11 @@
       <c r="E3" s="20">
         <v>1.0</v>
       </c>
-      <c r="F3" s="22"/>
+      <c r="F3" s="27"/>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="28" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5772,12 +6250,12 @@
       <c r="E4" s="20">
         <v>5.0</v>
       </c>
-      <c r="F4" s="22"/>
+      <c r="F4" s="27"/>
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5">
@@ -5792,12 +6270,12 @@
       <c r="E5" s="20">
         <v>5.0</v>
       </c>
-      <c r="F5" s="22"/>
+      <c r="F5" s="27"/>
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
       <c r="J5" s="20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6">
@@ -5806,18 +6284,18 @@
       <c r="C6" s="20">
         <v>1068.0</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="25" t="s">
         <v>64</v>
       </c>
       <c r="E6" s="20">
         <v>3.0</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="23" t="s">
-        <v>95</v>
+      <c r="F6" s="27"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="24" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="7">
@@ -5832,11 +6310,11 @@
       <c r="E7" s="20">
         <v>1.0</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="F7" s="27"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
-      <c r="J7" s="23" t="s">
+      <c r="J7" s="24" t="s">
         <v>84</v>
       </c>
     </row>
@@ -5852,11 +6330,11 @@
       <c r="E8" s="20">
         <v>1.0</v>
       </c>
-      <c r="F8" s="22"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="28" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5872,12 +6350,12 @@
       <c r="E9" s="20">
         <v>5.0</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="27"/>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
       <c r="J9" s="20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
@@ -5892,12 +6370,12 @@
       <c r="E10" s="20">
         <v>5.0</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="27"/>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
       <c r="J10" s="20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11">
@@ -5906,18 +6384,18 @@
       <c r="C11" s="20">
         <v>1073.0</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="25" t="s">
         <v>64</v>
       </c>
       <c r="E11" s="20">
         <v>3.0</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="23" t="s">
-        <v>95</v>
+      <c r="F11" s="27"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="24" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="12">
@@ -5932,11 +6410,11 @@
       <c r="E12" s="20">
         <v>1.0</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="27"/>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
-      <c r="J12" s="23" t="s">
+      <c r="J12" s="24" t="s">
         <v>84</v>
       </c>
     </row>
@@ -5952,11 +6430,11 @@
       <c r="E13" s="20">
         <v>1.0</v>
       </c>
-      <c r="F13" s="22"/>
+      <c r="F13" s="27"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
-      <c r="J13" s="25" t="s">
+      <c r="J13" s="28" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5972,12 +6450,12 @@
       <c r="E14" s="20">
         <v>5.0</v>
       </c>
-      <c r="F14" s="22"/>
+      <c r="F14" s="27"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
       <c r="J14" s="20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15">
@@ -5992,45 +6470,21 @@
       <c r="E15" s="20">
         <v>5.0</v>
       </c>
-      <c r="F15" s="22"/>
+      <c r="F15" s="27"/>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="11">
-        <v>1078.0</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="F16" s="11">
-        <v>10.0</v>
-      </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="11">
-        <v>1079.0</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="10"/>
@@ -6041,7 +6495,7 @@
       <c r="D18" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="26"/>
+      <c r="E18" s="29"/>
       <c r="F18" s="16">
         <v>8.0</v>
       </c>
@@ -6061,7 +6515,7 @@
       <c r="D19" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="26"/>
+      <c r="E19" s="29"/>
       <c r="F19" s="16">
         <v>16.0</v>
       </c>
@@ -6081,7 +6535,7 @@
       <c r="D20" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="26"/>
+      <c r="E20" s="29"/>
       <c r="F20" s="16">
         <v>24.0</v>
       </c>
@@ -6099,9 +6553,9 @@
         <v>1083.0</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="E21" s="26"/>
+        <v>101</v>
+      </c>
+      <c r="E21" s="29"/>
       <c r="F21" s="16">
         <v>20.0</v>
       </c>
@@ -6109,7 +6563,7 @@
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22">
@@ -6121,7 +6575,7 @@
       <c r="D22" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="26"/>
+      <c r="E22" s="29"/>
       <c r="F22" s="16">
         <v>29.0</v>
       </c>
@@ -6141,7 +6595,7 @@
       <c r="D23" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="26"/>
+      <c r="E23" s="29"/>
       <c r="F23" s="16">
         <v>34.0</v>
       </c>
@@ -6161,7 +6615,7 @@
       <c r="D24" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="26"/>
+      <c r="E24" s="29"/>
       <c r="F24" s="16">
         <v>39.0</v>
       </c>
@@ -6179,9 +6633,9 @@
         <v>1087.0</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25" s="26"/>
+        <v>101</v>
+      </c>
+      <c r="E25" s="29"/>
       <c r="F25" s="16">
         <v>35.0</v>
       </c>
@@ -6189,7 +6643,7 @@
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="J25" s="16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26">
@@ -6201,7 +6655,7 @@
       <c r="D26" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="26"/>
+      <c r="E26" s="29"/>
       <c r="F26" s="16">
         <v>44.0</v>
       </c>
@@ -6221,15 +6675,15 @@
       <c r="D27" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="27">
+      <c r="E27" s="29"/>
+      <c r="F27" s="30">
         <v>0.1</v>
       </c>
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
       <c r="J27" s="16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28">
@@ -6241,7 +6695,7 @@
       <c r="D28" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="26"/>
+      <c r="E28" s="29"/>
       <c r="F28" s="16">
         <v>49.0</v>
       </c>
@@ -6261,15 +6715,15 @@
       <c r="D29" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="27">
+      <c r="E29" s="29"/>
+      <c r="F29" s="30">
         <v>0.2</v>
       </c>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
@@ -6281,7 +6735,7 @@
       <c r="D30" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="26"/>
+      <c r="E30" s="29"/>
       <c r="F30" s="16">
         <v>54.0</v>
       </c>
@@ -6301,15 +6755,15 @@
       <c r="D31" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="E31" s="26"/>
-      <c r="F31" s="27">
+      <c r="E31" s="29"/>
+      <c r="F31" s="30">
         <v>0.4</v>
       </c>
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
       <c r="J31" s="16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32">
@@ -6319,9 +6773,9 @@
         <v>1094.0</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="E32" s="26"/>
+        <v>101</v>
+      </c>
+      <c r="E32" s="29"/>
       <c r="F32" s="16">
         <v>55.0</v>
       </c>
@@ -6329,7 +6783,7 @@
       <c r="H32" s="16"/>
       <c r="I32" s="16"/>
       <c r="J32" s="16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33">
@@ -6339,17 +6793,17 @@
         <v>1095.0</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="E33" s="26"/>
+        <v>106</v>
+      </c>
+      <c r="E33" s="29"/>
       <c r="F33" s="16">
         <v>20.0</v>
       </c>
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
-      <c r="J33" s="28" t="s">
-        <v>105</v>
+      <c r="J33" s="31" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="34">
@@ -6359,17 +6813,17 @@
         <v>1096.0</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34" s="26"/>
-      <c r="F34" s="27">
+        <v>108</v>
+      </c>
+      <c r="E34" s="29"/>
+      <c r="F34" s="30">
         <v>0.1</v>
       </c>
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
       <c r="J34" s="16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/CourseCardSystem/SkillConfig.xlsx
+++ b/CourseCardSystem/SkillConfig.xlsx
@@ -376,7 +376,6 @@
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12.0"/>
@@ -387,7 +386,6 @@
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -396,12 +394,10 @@
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -413,11 +409,11 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="12.0"/>
+      <name val="Calibri"/>
+    </font>
     <font/>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -463,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -534,6 +530,9 @@
     <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -541,13 +540,13 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
@@ -1498,9 +1497,6 @@
       <c r="J16" s="12">
         <v>0.0</v>
       </c>
-      <c r="K16" s="12">
-        <v>-1.0</v>
-      </c>
       <c r="L16" s="12" t="s">
         <v>41</v>
       </c>
@@ -1535,9 +1531,6 @@
       <c r="J17" s="12">
         <v>0.0</v>
       </c>
-      <c r="K17" s="12">
-        <v>-1.0</v>
-      </c>
       <c r="L17" s="12" t="s">
         <v>41</v>
       </c>
@@ -1572,9 +1565,6 @@
       <c r="J18" s="12">
         <v>0.0</v>
       </c>
-      <c r="K18" s="12">
-        <v>-1.0</v>
-      </c>
       <c r="L18" s="12" t="s">
         <v>41</v>
       </c>
@@ -1609,9 +1599,6 @@
       <c r="J19" s="12">
         <v>0.0</v>
       </c>
-      <c r="K19" s="12">
-        <v>-1.0</v>
-      </c>
       <c r="L19" s="12" t="s">
         <v>41</v>
       </c>
@@ -1645,9 +1632,6 @@
       </c>
       <c r="J20" s="12">
         <v>0.0</v>
-      </c>
-      <c r="K20" s="12">
-        <v>-1.0</v>
       </c>
       <c r="L20" s="12" t="s">
         <v>41</v>
@@ -1677,9 +1661,6 @@
       <c r="J21" s="12">
         <v>0.0</v>
       </c>
-      <c r="K21" s="12">
-        <v>-1.0</v>
-      </c>
       <c r="L21" s="12" t="s">
         <v>41</v>
       </c>
@@ -1712,9 +1693,6 @@
       <c r="J22" s="12">
         <v>0.0</v>
       </c>
-      <c r="K22" s="12">
-        <v>-1.0</v>
-      </c>
       <c r="L22" s="12" t="s">
         <v>41</v>
       </c>
@@ -1968,9 +1946,6 @@
         <v>30.0</v>
       </c>
       <c r="I29" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="J29" s="12">
         <v>0.0</v>
       </c>
       <c r="K29" s="12">
@@ -2502,7 +2477,9 @@
       <c r="I47" s="18">
         <v>0.0</v>
       </c>
-      <c r="J47" s="18"/>
+      <c r="J47" s="18">
+        <v>0.0</v>
+      </c>
       <c r="K47" s="18"/>
       <c r="L47" s="18" t="s">
         <v>33</v>
@@ -2558,7 +2535,9 @@
       <c r="I49" s="18">
         <v>0.0</v>
       </c>
-      <c r="J49" s="18"/>
+      <c r="J49" s="18">
+        <v>0.0</v>
+      </c>
       <c r="K49" s="18"/>
       <c r="L49" s="18" t="s">
         <v>36</v>
@@ -2614,7 +2593,9 @@
       <c r="I51" s="18">
         <v>0.0</v>
       </c>
-      <c r="J51" s="18"/>
+      <c r="J51" s="18">
+        <v>0.0</v>
+      </c>
       <c r="K51" s="18"/>
       <c r="L51" s="18" t="s">
         <v>38</v>
@@ -3031,8 +3012,10 @@
         <v>0.0</v>
       </c>
       <c r="J66" s="22"/>
-      <c r="K66" s="22"/>
-      <c r="L66" s="24" t="s">
+      <c r="K66" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="L66" s="25" t="s">
         <v>86</v>
       </c>
       <c r="M66" s="21" t="s">
@@ -3057,8 +3040,10 @@
         <v>0.0</v>
       </c>
       <c r="J67" s="23"/>
-      <c r="K67" s="23"/>
-      <c r="L67" s="24" t="s">
+      <c r="K67" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="L67" s="25" t="s">
         <v>98</v>
       </c>
       <c r="M67" s="21" t="s">
@@ -3083,8 +3068,10 @@
         <v>0.0</v>
       </c>
       <c r="J68" s="22"/>
-      <c r="K68" s="22"/>
-      <c r="L68" s="25" t="s">
+      <c r="K68" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="L68" s="26" t="s">
         <v>88</v>
       </c>
       <c r="M68" s="21" t="s">
@@ -3165,8 +3152,10 @@
         <v>0.0</v>
       </c>
       <c r="J71" s="23"/>
-      <c r="K71" s="23"/>
-      <c r="L71" s="24" t="s">
+      <c r="K71" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="L71" s="25" t="s">
         <v>98</v>
       </c>
       <c r="M71" s="21" t="s">
@@ -3191,8 +3180,10 @@
         <v>0.0</v>
       </c>
       <c r="J72" s="22"/>
-      <c r="K72" s="22"/>
-      <c r="L72" s="24" t="s">
+      <c r="K72" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="L72" s="25" t="s">
         <v>86</v>
       </c>
       <c r="M72" s="21" t="s">
@@ -3218,7 +3209,7 @@
       </c>
       <c r="J73" s="22"/>
       <c r="K73" s="22"/>
-      <c r="L73" s="25" t="s">
+      <c r="L73" s="26" t="s">
         <v>88</v>
       </c>
       <c r="M73" s="21" t="s">
@@ -3299,8 +3290,10 @@
         <v>0.0</v>
       </c>
       <c r="J76" s="23"/>
-      <c r="K76" s="23"/>
-      <c r="L76" s="24" t="s">
+      <c r="K76" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="L76" s="25" t="s">
         <v>98</v>
       </c>
       <c r="M76" s="21" t="s">
@@ -3325,8 +3318,10 @@
         <v>0.0</v>
       </c>
       <c r="J77" s="22"/>
-      <c r="K77" s="22"/>
-      <c r="L77" s="24" t="s">
+      <c r="K77" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="L77" s="25" t="s">
         <v>86</v>
       </c>
       <c r="M77" s="21" t="s">
@@ -3351,8 +3346,10 @@
         <v>0.0</v>
       </c>
       <c r="J78" s="22"/>
-      <c r="K78" s="22"/>
-      <c r="L78" s="25" t="s">
+      <c r="K78" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="L78" s="26" t="s">
         <v>88</v>
       </c>
       <c r="M78" s="21" t="s">
@@ -3416,7 +3413,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="D81" s="26"/>
+      <c r="D81" s="27"/>
       <c r="E81" s="21">
         <v>1078.0</v>
       </c>
@@ -3435,7 +3432,7 @@
       <c r="J81" s="21">
         <v>31.0</v>
       </c>
-      <c r="K81" s="26"/>
+      <c r="K81" s="27"/>
       <c r="L81" s="21" t="s">
         <v>85</v>
       </c>
@@ -3444,7 +3441,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="D82" s="26"/>
+      <c r="D82" s="27"/>
       <c r="E82" s="21">
         <v>1079.0</v>
       </c>
@@ -3463,7 +3460,7 @@
       <c r="J82" s="21">
         <v>32.0</v>
       </c>
-      <c r="K82" s="26"/>
+      <c r="K82" s="27"/>
       <c r="L82" s="21" t="s">
         <v>102</v>
       </c>
@@ -3489,7 +3486,9 @@
         <v>0.0</v>
       </c>
       <c r="J83" s="17"/>
-      <c r="K83" s="17"/>
+      <c r="K83" s="28">
+        <v>2.0</v>
+      </c>
       <c r="L83" s="17" t="s">
         <v>88</v>
       </c>
@@ -3515,7 +3514,9 @@
         <v>0.0</v>
       </c>
       <c r="J84" s="17"/>
-      <c r="K84" s="17"/>
+      <c r="K84" s="28">
+        <v>2.0</v>
+      </c>
       <c r="L84" s="17" t="s">
         <v>88</v>
       </c>
@@ -3541,7 +3542,9 @@
         <v>0.0</v>
       </c>
       <c r="J85" s="17"/>
-      <c r="K85" s="17"/>
+      <c r="K85" s="28">
+        <v>2.0</v>
+      </c>
       <c r="L85" s="17" t="s">
         <v>88</v>
       </c>
@@ -3566,7 +3569,7 @@
       <c r="I86" s="17">
         <v>1.0</v>
       </c>
-      <c r="J86" s="27">
+      <c r="J86" s="28">
         <v>55.0</v>
       </c>
       <c r="K86" s="17"/>
@@ -3595,7 +3598,9 @@
         <v>0.0</v>
       </c>
       <c r="J87" s="17"/>
-      <c r="K87" s="17"/>
+      <c r="K87" s="28">
+        <v>2.0</v>
+      </c>
       <c r="L87" s="17" t="s">
         <v>86</v>
       </c>
@@ -3621,7 +3626,9 @@
         <v>0.0</v>
       </c>
       <c r="J88" s="17"/>
-      <c r="K88" s="17"/>
+      <c r="K88" s="28">
+        <v>2.0</v>
+      </c>
       <c r="L88" s="17" t="s">
         <v>86</v>
       </c>
@@ -3647,7 +3654,9 @@
         <v>0.0</v>
       </c>
       <c r="J89" s="17"/>
-      <c r="K89" s="17"/>
+      <c r="K89" s="28">
+        <v>2.0</v>
+      </c>
       <c r="L89" s="17" t="s">
         <v>86</v>
       </c>
@@ -3672,7 +3681,7 @@
       <c r="I90" s="17">
         <v>1.0</v>
       </c>
-      <c r="J90" s="27">
+      <c r="J90" s="28">
         <v>55.0</v>
       </c>
       <c r="K90" s="17"/>
@@ -3701,7 +3710,9 @@
         <v>0.0</v>
       </c>
       <c r="J91" s="17"/>
-      <c r="K91" s="17"/>
+      <c r="K91" s="28">
+        <v>2.0</v>
+      </c>
       <c r="L91" s="17" t="s">
         <v>86</v>
       </c>
@@ -3755,7 +3766,9 @@
         <v>0.0</v>
       </c>
       <c r="J93" s="17"/>
-      <c r="K93" s="17"/>
+      <c r="K93" s="28">
+        <v>2.0</v>
+      </c>
       <c r="L93" s="17" t="s">
         <v>86</v>
       </c>
@@ -3809,7 +3822,9 @@
         <v>0.0</v>
       </c>
       <c r="J95" s="17"/>
-      <c r="K95" s="17"/>
+      <c r="K95" s="28">
+        <v>2.0</v>
+      </c>
       <c r="L95" s="17" t="s">
         <v>86</v>
       </c>
@@ -3862,7 +3877,7 @@
       <c r="I97" s="17">
         <v>1.0</v>
       </c>
-      <c r="J97" s="27">
+      <c r="J97" s="28">
         <v>55.0</v>
       </c>
       <c r="K97" s="17"/>
@@ -3890,11 +3905,11 @@
       <c r="I98" s="17">
         <v>1.0</v>
       </c>
-      <c r="J98" s="27">
+      <c r="J98" s="28">
         <v>32.0</v>
       </c>
       <c r="K98" s="17"/>
-      <c r="L98" s="28" t="s">
+      <c r="L98" s="29" t="s">
         <v>109</v>
       </c>
       <c r="M98" s="12" t="s">
@@ -3920,7 +3935,9 @@
         <v>0.0</v>
       </c>
       <c r="J99" s="17"/>
-      <c r="K99" s="17"/>
+      <c r="K99" s="28">
+        <v>2.0</v>
+      </c>
       <c r="L99" s="17" t="s">
         <v>110</v>
       </c>
@@ -3930,454 +3947,460 @@
     </row>
     <row r="100">
       <c r="C100" s="11"/>
-      <c r="E100" s="29">
+      <c r="E100" s="30">
         <v>1132.0</v>
       </c>
-      <c r="F100" s="29" t="s">
+      <c r="F100" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G100" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="H100" s="29">
+      <c r="G100" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="H100" s="30">
         <v>5.0</v>
       </c>
-      <c r="I100" s="29">
-        <v>0.0</v>
-      </c>
-      <c r="K100" s="29">
+      <c r="I100" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="K100" s="30">
         <v>2.0</v>
       </c>
     </row>
     <row r="101">
       <c r="C101" s="11"/>
-      <c r="E101" s="29">
+      <c r="E101" s="30">
         <v>1133.0</v>
       </c>
-      <c r="F101" s="29" t="s">
+      <c r="F101" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G101" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="H101" s="29">
+      <c r="G101" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="H101" s="30">
         <v>3.0</v>
       </c>
-      <c r="I101" s="29">
-        <v>0.0</v>
-      </c>
-      <c r="K101" s="29">
+      <c r="I101" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="K101" s="30">
         <v>2.0</v>
       </c>
     </row>
     <row r="102">
       <c r="C102" s="11"/>
-      <c r="E102" s="29">
+      <c r="E102" s="30">
         <v>1134.0</v>
       </c>
-      <c r="F102" s="29" t="s">
+      <c r="F102" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G102" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="H102" s="29">
+      <c r="G102" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="H102" s="30">
         <v>3.0</v>
       </c>
-      <c r="I102" s="29">
-        <v>0.0</v>
-      </c>
-      <c r="K102" s="29">
+      <c r="I102" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="K102" s="30">
         <v>2.0</v>
       </c>
     </row>
     <row r="103">
       <c r="C103" s="11"/>
-      <c r="E103" s="29">
+      <c r="E103" s="30">
         <v>1135.0</v>
       </c>
-      <c r="F103" s="29" t="s">
+      <c r="F103" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G103" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="H103" s="29">
+      <c r="G103" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="H103" s="30">
         <v>3.0</v>
       </c>
-      <c r="I103" s="29">
-        <v>0.0</v>
-      </c>
-      <c r="K103" s="29">
+      <c r="I103" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="K103" s="30">
         <v>2.0</v>
       </c>
     </row>
     <row r="104">
       <c r="C104" s="11"/>
-      <c r="E104" s="29">
+      <c r="E104" s="30">
         <v>1136.0</v>
       </c>
-      <c r="F104" s="29" t="s">
+      <c r="F104" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G104" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="H104" s="29">
+      <c r="G104" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="H104" s="30">
         <v>3.0</v>
       </c>
-      <c r="I104" s="29">
-        <v>0.0</v>
-      </c>
-      <c r="K104" s="29">
+      <c r="I104" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="K104" s="30">
         <v>2.0</v>
       </c>
     </row>
     <row r="105">
       <c r="C105" s="11"/>
-      <c r="E105" s="29">
+      <c r="E105" s="30">
         <v>1137.0</v>
       </c>
-      <c r="F105" s="29" t="s">
+      <c r="F105" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G105" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="H105" s="29">
+      <c r="G105" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="H105" s="30">
         <v>3.0</v>
       </c>
-      <c r="I105" s="29">
-        <v>0.0</v>
-      </c>
-      <c r="K105" s="29">
+      <c r="I105" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="K105" s="30">
         <v>2.0</v>
       </c>
     </row>
     <row r="106">
       <c r="C106" s="11"/>
-      <c r="E106" s="29">
+      <c r="E106" s="30">
         <v>1138.0</v>
       </c>
-      <c r="F106" s="29" t="s">
+      <c r="F106" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G106" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="H106" s="29">
+      <c r="G106" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="H106" s="30">
         <v>3.0</v>
       </c>
-      <c r="I106" s="29">
-        <v>0.0</v>
-      </c>
-      <c r="K106" s="29">
+      <c r="I106" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="K106" s="30">
         <v>2.0</v>
       </c>
     </row>
     <row r="107">
       <c r="C107" s="11"/>
-      <c r="E107" s="29">
+      <c r="E107" s="30">
         <v>1139.0</v>
       </c>
-      <c r="F107" s="29" t="s">
+      <c r="F107" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G107" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="H107" s="29">
+      <c r="G107" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="H107" s="30">
         <v>3.0</v>
       </c>
-      <c r="I107" s="29">
-        <v>0.0</v>
-      </c>
-      <c r="K107" s="29">
+      <c r="I107" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="K107" s="30">
         <v>2.0</v>
       </c>
     </row>
     <row r="108">
       <c r="C108" s="11"/>
-      <c r="E108" s="29">
+      <c r="E108" s="30">
         <v>1140.0</v>
       </c>
-      <c r="F108" s="29" t="s">
+      <c r="F108" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G108" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="H108" s="29">
+      <c r="G108" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="H108" s="30">
         <v>3.0</v>
       </c>
-      <c r="I108" s="29">
-        <v>0.0</v>
-      </c>
-      <c r="K108" s="29">
+      <c r="I108" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="K108" s="30">
         <v>2.0</v>
       </c>
     </row>
     <row r="109">
       <c r="C109" s="11"/>
-      <c r="E109" s="29">
+      <c r="E109" s="30">
         <v>1141.0</v>
       </c>
-      <c r="F109" s="29" t="s">
+      <c r="F109" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G109" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="H109" s="29">
+      <c r="G109" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="H109" s="30">
         <v>3.0</v>
       </c>
-      <c r="I109" s="29">
-        <v>0.0</v>
-      </c>
-      <c r="K109" s="29">
+      <c r="I109" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="K109" s="30">
         <v>2.0</v>
       </c>
     </row>
     <row r="110">
       <c r="C110" s="11"/>
-      <c r="E110" s="29">
+      <c r="E110" s="30">
         <v>1142.0</v>
       </c>
-      <c r="F110" s="29" t="s">
+      <c r="F110" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="G110" s="29">
+      <c r="G110" s="30">
         <v>7.0</v>
       </c>
-      <c r="H110" s="29">
+      <c r="H110" s="30">
         <v>10.0</v>
       </c>
-      <c r="I110" s="29">
+      <c r="I110" s="30">
         <v>1.0</v>
       </c>
     </row>
     <row r="111">
       <c r="C111" s="11"/>
-      <c r="E111" s="29">
+      <c r="E111" s="30">
         <v>1143.0</v>
       </c>
-      <c r="F111" s="29" t="s">
+      <c r="F111" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="G111" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="H111" s="29">
+      <c r="G111" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="H111" s="30">
         <v>10.0</v>
       </c>
-      <c r="I111" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="J111" s="29">
+      <c r="I111" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="J111" s="30">
         <v>63.0</v>
       </c>
     </row>
     <row r="112">
       <c r="C112" s="11"/>
-      <c r="E112" s="29">
+      <c r="E112" s="30">
         <v>1144.0</v>
       </c>
-      <c r="F112" s="29" t="s">
+      <c r="F112" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="G112" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="H112" s="29">
+      <c r="G112" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="H112" s="30">
         <v>10.0</v>
       </c>
-      <c r="I112" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="J112" s="29">
+      <c r="I112" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="J112" s="30">
         <v>37.0</v>
       </c>
     </row>
     <row r="113">
       <c r="C113" s="11"/>
-      <c r="E113" s="29">
+      <c r="E113" s="30">
         <v>1145.0</v>
       </c>
-      <c r="F113" s="29" t="s">
+      <c r="F113" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="G113" s="29">
+      <c r="G113" s="30">
         <v>5.0</v>
       </c>
-      <c r="H113" s="29">
+      <c r="H113" s="30">
         <v>10.0</v>
       </c>
-      <c r="I113" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="J113" s="29">
+      <c r="I113" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="J113" s="30">
         <v>63.0</v>
       </c>
     </row>
     <row r="114">
       <c r="C114" s="11"/>
-      <c r="E114" s="29">
+      <c r="E114" s="30">
         <v>1146.0</v>
       </c>
-      <c r="F114" s="29" t="s">
+      <c r="F114" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="G114" s="29">
+      <c r="G114" s="30">
         <v>7.0</v>
       </c>
-      <c r="H114" s="29">
+      <c r="H114" s="30">
         <v>20.0</v>
       </c>
-      <c r="I114" s="29">
-        <v>1.0</v>
+      <c r="I114" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="J114" s="12">
+        <v>0.0</v>
       </c>
     </row>
     <row r="115">
       <c r="C115" s="11"/>
-      <c r="E115" s="29">
+      <c r="E115" s="30">
         <v>1147.0</v>
       </c>
-      <c r="F115" s="29" t="s">
+      <c r="F115" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="G115" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="H115" s="29">
+      <c r="G115" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="H115" s="30">
         <v>20.0</v>
       </c>
-      <c r="I115" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="J115" s="29">
+      <c r="I115" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="J115" s="30">
         <v>63.0</v>
       </c>
     </row>
     <row r="116">
       <c r="C116" s="11"/>
-      <c r="E116" s="29">
+      <c r="E116" s="30">
         <v>1148.0</v>
       </c>
-      <c r="F116" s="29" t="s">
+      <c r="F116" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="G116" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="H116" s="29">
+      <c r="G116" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="H116" s="30">
         <v>20.0</v>
       </c>
-      <c r="I116" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="J116" s="29">
+      <c r="I116" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="J116" s="30">
         <v>37.0</v>
       </c>
     </row>
     <row r="117">
       <c r="C117" s="11"/>
-      <c r="E117" s="29">
+      <c r="E117" s="30">
         <v>1149.0</v>
       </c>
-      <c r="F117" s="29" t="s">
+      <c r="F117" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="G117" s="29">
+      <c r="G117" s="30">
         <v>5.0</v>
       </c>
-      <c r="H117" s="29">
+      <c r="H117" s="30">
         <v>20.0</v>
       </c>
-      <c r="I117" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="J117" s="29">
+      <c r="I117" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="J117" s="30">
         <v>63.0</v>
       </c>
     </row>
     <row r="118">
       <c r="C118" s="11"/>
-      <c r="E118" s="29">
+      <c r="E118" s="30">
         <v>1150.0</v>
       </c>
       <c r="F118" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G118" s="29">
+      <c r="G118" s="30">
         <v>2.0</v>
       </c>
-      <c r="H118" s="29">
+      <c r="H118" s="30">
         <v>30.0</v>
       </c>
-      <c r="I118" s="29">
+      <c r="I118" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="J118" s="12">
         <v>0.0</v>
       </c>
     </row>
     <row r="119">
       <c r="C119" s="11"/>
-      <c r="E119" s="29">
+      <c r="E119" s="30">
         <v>1151.0</v>
       </c>
-      <c r="F119" s="29" t="s">
+      <c r="F119" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="G119" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="H119" s="29">
+      <c r="G119" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="H119" s="30">
         <v>30.0</v>
       </c>
-      <c r="I119" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="J119" s="29">
+      <c r="I119" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="J119" s="30">
         <v>63.0</v>
       </c>
     </row>
     <row r="120">
       <c r="C120" s="11"/>
-      <c r="E120" s="29">
+      <c r="E120" s="30">
         <v>1152.0</v>
       </c>
-      <c r="F120" s="29" t="s">
+      <c r="F120" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="G120" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="H120" s="29">
+      <c r="G120" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="H120" s="30">
         <v>30.0</v>
       </c>
-      <c r="I120" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="J120" s="29">
+      <c r="I120" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="J120" s="30">
         <v>37.0</v>
       </c>
     </row>
     <row r="121">
       <c r="C121" s="11"/>
-      <c r="E121" s="29">
+      <c r="E121" s="30">
         <v>1153.0</v>
       </c>
-      <c r="F121" s="29" t="s">
+      <c r="F121" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="G121" s="29">
+      <c r="G121" s="30">
         <v>5.0</v>
       </c>
-      <c r="H121" s="29">
+      <c r="H121" s="30">
         <v>30.0</v>
       </c>
-      <c r="I121" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="J121" s="29">
+      <c r="I121" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="J121" s="30">
         <v>63.0</v>
       </c>
     </row>
@@ -6959,11 +6982,11 @@
       <c r="E1" s="21">
         <v>1.0</v>
       </c>
-      <c r="F1" s="26"/>
+      <c r="F1" s="27"/>
       <c r="G1" s="22"/>
       <c r="H1" s="22"/>
       <c r="I1" s="22"/>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="25" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6979,11 +7002,11 @@
       <c r="E2" s="21">
         <v>3.0</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="27"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="25" t="s">
         <v>98</v>
       </c>
     </row>
@@ -6999,11 +7022,11 @@
       <c r="E3" s="21">
         <v>1.0</v>
       </c>
-      <c r="F3" s="26"/>
+      <c r="F3" s="27"/>
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="26" t="s">
         <v>88</v>
       </c>
     </row>
@@ -7019,7 +7042,7 @@
       <c r="E4" s="21">
         <v>5.0</v>
       </c>
-      <c r="F4" s="26"/>
+      <c r="F4" s="27"/>
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
       <c r="I4" s="21"/>
@@ -7039,7 +7062,7 @@
       <c r="E5" s="21">
         <v>5.0</v>
       </c>
-      <c r="F5" s="26"/>
+      <c r="F5" s="27"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
@@ -7059,11 +7082,11 @@
       <c r="E6" s="21">
         <v>3.0</v>
       </c>
-      <c r="F6" s="26"/>
+      <c r="F6" s="27"/>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="25" t="s">
         <v>98</v>
       </c>
     </row>
@@ -7079,11 +7102,11 @@
       <c r="E7" s="21">
         <v>1.0</v>
       </c>
-      <c r="F7" s="26"/>
+      <c r="F7" s="27"/>
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="25" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7099,11 +7122,11 @@
       <c r="E8" s="21">
         <v>1.0</v>
       </c>
-      <c r="F8" s="26"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="26" t="s">
         <v>88</v>
       </c>
     </row>
@@ -7119,7 +7142,7 @@
       <c r="E9" s="21">
         <v>5.0</v>
       </c>
-      <c r="F9" s="26"/>
+      <c r="F9" s="27"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
@@ -7139,7 +7162,7 @@
       <c r="E10" s="21">
         <v>5.0</v>
       </c>
-      <c r="F10" s="26"/>
+      <c r="F10" s="27"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
@@ -7159,11 +7182,11 @@
       <c r="E11" s="21">
         <v>3.0</v>
       </c>
-      <c r="F11" s="26"/>
+      <c r="F11" s="27"/>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
-      <c r="J11" s="24" t="s">
+      <c r="J11" s="25" t="s">
         <v>98</v>
       </c>
     </row>
@@ -7179,11 +7202,11 @@
       <c r="E12" s="21">
         <v>1.0</v>
       </c>
-      <c r="F12" s="26"/>
+      <c r="F12" s="27"/>
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
       <c r="I12" s="22"/>
-      <c r="J12" s="24" t="s">
+      <c r="J12" s="25" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7199,11 +7222,11 @@
       <c r="E13" s="21">
         <v>1.0</v>
       </c>
-      <c r="F13" s="26"/>
+      <c r="F13" s="27"/>
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
-      <c r="J13" s="25" t="s">
+      <c r="J13" s="26" t="s">
         <v>88</v>
       </c>
     </row>
@@ -7219,7 +7242,7 @@
       <c r="E14" s="21">
         <v>5.0</v>
       </c>
-      <c r="F14" s="26"/>
+      <c r="F14" s="27"/>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
@@ -7239,7 +7262,7 @@
       <c r="E15" s="21">
         <v>5.0</v>
       </c>
-      <c r="F15" s="26"/>
+      <c r="F15" s="27"/>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
@@ -7264,7 +7287,7 @@
       <c r="D18" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="30"/>
+      <c r="E18" s="31"/>
       <c r="F18" s="17">
         <v>8.0</v>
       </c>
@@ -7284,7 +7307,7 @@
       <c r="D19" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="30"/>
+      <c r="E19" s="31"/>
       <c r="F19" s="17">
         <v>16.0</v>
       </c>
@@ -7304,7 +7327,7 @@
       <c r="D20" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="30"/>
+      <c r="E20" s="31"/>
       <c r="F20" s="17">
         <v>24.0</v>
       </c>
@@ -7324,7 +7347,7 @@
       <c r="D21" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="E21" s="30"/>
+      <c r="E21" s="31"/>
       <c r="F21" s="17">
         <v>20.0</v>
       </c>
@@ -7344,7 +7367,7 @@
       <c r="D22" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="30"/>
+      <c r="E22" s="31"/>
       <c r="F22" s="17">
         <v>29.0</v>
       </c>
@@ -7364,7 +7387,7 @@
       <c r="D23" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="30"/>
+      <c r="E23" s="31"/>
       <c r="F23" s="17">
         <v>34.0</v>
       </c>
@@ -7384,7 +7407,7 @@
       <c r="D24" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="30"/>
+      <c r="E24" s="31"/>
       <c r="F24" s="17">
         <v>39.0</v>
       </c>
@@ -7404,7 +7427,7 @@
       <c r="D25" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="E25" s="30"/>
+      <c r="E25" s="31"/>
       <c r="F25" s="17">
         <v>35.0</v>
       </c>
@@ -7424,7 +7447,7 @@
       <c r="D26" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="30"/>
+      <c r="E26" s="31"/>
       <c r="F26" s="17">
         <v>44.0</v>
       </c>
@@ -7444,8 +7467,8 @@
       <c r="D27" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="31">
+      <c r="E27" s="31"/>
+      <c r="F27" s="32">
         <v>0.1</v>
       </c>
       <c r="G27" s="17"/>
@@ -7464,7 +7487,7 @@
       <c r="D28" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="30"/>
+      <c r="E28" s="31"/>
       <c r="F28" s="17">
         <v>49.0</v>
       </c>
@@ -7484,8 +7507,8 @@
       <c r="D29" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="30"/>
-      <c r="F29" s="31">
+      <c r="E29" s="31"/>
+      <c r="F29" s="32">
         <v>0.2</v>
       </c>
       <c r="G29" s="17"/>
@@ -7504,7 +7527,7 @@
       <c r="D30" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="30"/>
+      <c r="E30" s="31"/>
       <c r="F30" s="17">
         <v>54.0</v>
       </c>
@@ -7524,8 +7547,8 @@
       <c r="D31" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="31">
+      <c r="E31" s="31"/>
+      <c r="F31" s="32">
         <v>0.4</v>
       </c>
       <c r="G31" s="17"/>
@@ -7544,7 +7567,7 @@
       <c r="D32" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="E32" s="30"/>
+      <c r="E32" s="31"/>
       <c r="F32" s="17">
         <v>55.0</v>
       </c>
@@ -7564,14 +7587,14 @@
       <c r="D33" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="E33" s="30"/>
+      <c r="E33" s="31"/>
       <c r="F33" s="17">
         <v>20.0</v>
       </c>
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
       <c r="I33" s="17"/>
-      <c r="J33" s="28" t="s">
+      <c r="J33" s="29" t="s">
         <v>109</v>
       </c>
     </row>
@@ -7584,8 +7607,8 @@
       <c r="D34" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="31">
+      <c r="E34" s="31"/>
+      <c r="F34" s="32">
         <v>0.1</v>
       </c>
       <c r="G34" s="17"/>
